--- a/qualitative_analysis/analysis_interviews/explication_interviews.xlsx
+++ b/qualitative_analysis/analysis_interviews/explication_interviews.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSIA\Masterarbeit\masterarbeit\qualitative_analysis\analysis_interviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01E2C2-3CAB-46DD-90FA-3ED48A2CB1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98317BB-BECE-4106-8F17-3D4CE17B7313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8295" windowWidth="29040" windowHeight="17640" xr2:uid="{0BF5162F-D70E-46AA-A905-2549963B1D89}"/>
+    <workbookView xWindow="-28920" yWindow="-8295" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{0BF5162F-D70E-46AA-A905-2549963B1D89}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="explication_interviews" sheetId="1" r:id="rId1"/>
     <sheet name="gesamt_codes" sheetId="12" r:id="rId2"/>
-    <sheet name="Übercodes" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelle2" sheetId="16" r:id="rId4"/>
-    <sheet name="Tabelle15" sheetId="15" r:id="rId5"/>
-    <sheet name="Tabelle3" sheetId="17" r:id="rId6"/>
+    <sheet name="code_structure" sheetId="3" r:id="rId3"/>
+    <sheet name="codematrix" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">explication_interviews!$B$1:$H$644</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gesamt_codes!$A$1:$N$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$H$644</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="839">
   <si>
     <t>Code</t>
   </si>
@@ -2220,57 +2218,12 @@
     <t>Thema</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeitbanken </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbeitsmarkt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesellschaft </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bildung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technologisierung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angebote </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachfrage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technische Features </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sozioökonomische Faktoren </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Globalisierung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verständnis von Technik </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zukunftsprognosen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herausforderungen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschäftigungsmodelle </t>
-  </si>
-  <si>
     <t>Ich meine Blockchain gibt einfach die Möglichkeit einfach auch Dinge langfristig und im Detail einfach auch nachzuverfolgen. Ich glaube jetzt, bei dem Zeittausch ist das nicht notwendig. Weil im Prinzip ist es ja da Leistung und dort Leistung in irgendeiner Form eingebracht und verwaltet, glaube jetzt nicht, dass da und letztendlich ist die Verwaltung und die Umsetzung von Blockchain Technologie und den ganzen Prozessen doch relativ aufwändig und schafft in dem Umfeld nicht unbedingt einen Nutzen.</t>
   </si>
   <si>
     <t>Liste der Codes</t>
   </si>
   <si>
-    <t>Häufigkeit</t>
-  </si>
-  <si>
     <t>Codesystem</t>
   </si>
   <si>
@@ -2316,27 +2269,15 @@
     <t>Interview 10</t>
   </si>
   <si>
-    <t>Summe Unterpunkte</t>
-  </si>
-  <si>
     <t xml:space="preserve">azyklisches Verhalten ausgleichen </t>
   </si>
   <si>
-    <t>E1, Absatz 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">azyklisches Verhalten ausgelichen </t>
   </si>
   <si>
     <t xml:space="preserve">Anwendungsbeispiele </t>
   </si>
   <si>
-    <t>Hilfe bei Umzug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1, Absatz 2 </t>
-  </si>
-  <si>
     <t>Selbstverständlich anderen helfen</t>
   </si>
   <si>
@@ -2602,6 +2543,21 @@
   </si>
   <si>
     <t xml:space="preserve">Finanzierung </t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>DSRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt </t>
+  </si>
+  <si>
+    <t>Summe DSRP</t>
   </si>
 </sst>
 </file>
@@ -2975,7 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E238203-5FB2-4271-9E07-E5EBC63626C0}">
   <dimension ref="B1:H644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B535" workbookViewId="0">
+    <sheetView topLeftCell="B535" workbookViewId="0">
       <selection activeCell="F541" sqref="F541"/>
     </sheetView>
   </sheetViews>
@@ -3042,7 +2998,7 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -3062,7 +3018,7 @@
         <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -3082,7 +3038,7 @@
         <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -3102,7 +3058,7 @@
         <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -3122,7 +3078,7 @@
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -3142,7 +3098,7 @@
         <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -3179,7 +3135,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -3199,7 +3155,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -3219,7 +3175,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -3256,7 +3212,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -3293,7 +3249,7 @@
         <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -3313,7 +3269,7 @@
         <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -3333,7 +3289,7 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -3353,7 +3309,7 @@
         <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -3373,7 +3329,7 @@
         <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -3410,7 +3366,7 @@
         <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -3464,7 +3420,7 @@
         <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -3481,10 +3437,10 @@
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="G27" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -3504,7 +3460,7 @@
         <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -3524,7 +3480,7 @@
         <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -3544,7 +3500,7 @@
         <v>95</v>
       </c>
       <c r="G30" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
@@ -3598,7 +3554,7 @@
         <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -3618,7 +3574,7 @@
         <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -3638,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -3655,10 +3611,10 @@
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="G36" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
@@ -3678,7 +3634,7 @@
         <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -3715,7 +3671,7 @@
         <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
@@ -3735,7 +3691,7 @@
         <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
@@ -3755,7 +3711,7 @@
         <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
@@ -3775,7 +3731,7 @@
         <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
@@ -3812,7 +3768,7 @@
         <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -3832,7 +3788,7 @@
         <v>109</v>
       </c>
       <c r="G45" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
@@ -3903,7 +3859,7 @@
         <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
@@ -3923,7 +3879,7 @@
         <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -3960,7 +3916,7 @@
         <v>116</v>
       </c>
       <c r="G52" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
@@ -3980,7 +3936,7 @@
         <v>117</v>
       </c>
       <c r="G53" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
@@ -4000,7 +3956,7 @@
         <v>118</v>
       </c>
       <c r="G54" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
@@ -4088,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="G59" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
@@ -4108,7 +4064,7 @@
         <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
@@ -4128,7 +4084,7 @@
         <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
@@ -4216,7 +4172,7 @@
         <v>129</v>
       </c>
       <c r="G66" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
@@ -4236,7 +4192,7 @@
         <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
@@ -4324,7 +4280,7 @@
         <v>135</v>
       </c>
       <c r="G72" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
@@ -4378,7 +4334,7 @@
         <v>175</v>
       </c>
       <c r="G75" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
@@ -4398,7 +4354,7 @@
         <v>176</v>
       </c>
       <c r="G76" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
@@ -4418,7 +4374,7 @@
         <v>177</v>
       </c>
       <c r="G77" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
@@ -4438,7 +4394,7 @@
         <v>178</v>
       </c>
       <c r="G78" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
@@ -4509,7 +4465,7 @@
         <v>181</v>
       </c>
       <c r="G82" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
@@ -4648,7 +4604,7 @@
         <v>187</v>
       </c>
       <c r="H90" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
@@ -4668,7 +4624,7 @@
         <v>188</v>
       </c>
       <c r="G91" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
@@ -4705,7 +4661,7 @@
         <v>190</v>
       </c>
       <c r="G93" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
@@ -4742,7 +4698,7 @@
         <v>192</v>
       </c>
       <c r="G95" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
@@ -4779,7 +4735,7 @@
         <v>194</v>
       </c>
       <c r="G97" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
@@ -4799,7 +4755,7 @@
         <v>195</v>
       </c>
       <c r="G98" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
@@ -4819,7 +4775,7 @@
         <v>196</v>
       </c>
       <c r="G99" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
@@ -4839,7 +4795,7 @@
         <v>197</v>
       </c>
       <c r="G100" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
@@ -4876,7 +4832,7 @@
         <v>199</v>
       </c>
       <c r="G102" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
@@ -4896,7 +4852,7 @@
         <v>200</v>
       </c>
       <c r="G103" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
@@ -4950,7 +4906,7 @@
         <v>203</v>
       </c>
       <c r="G106" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
@@ -5004,7 +4960,7 @@
         <v>206</v>
       </c>
       <c r="G109" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
@@ -5058,7 +5014,7 @@
         <v>209</v>
       </c>
       <c r="G112" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
@@ -5135,7 +5091,7 @@
         <v>213</v>
       </c>
       <c r="G116" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
@@ -5155,7 +5111,7 @@
         <v>213</v>
       </c>
       <c r="G117" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
@@ -5175,7 +5131,7 @@
         <v>214</v>
       </c>
       <c r="G118" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
@@ -5195,7 +5151,7 @@
         <v>215</v>
       </c>
       <c r="G119" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
@@ -5229,7 +5185,7 @@
         <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
@@ -5249,7 +5205,7 @@
         <v>217</v>
       </c>
       <c r="G122" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
@@ -5286,7 +5242,7 @@
         <v>219</v>
       </c>
       <c r="G124" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
@@ -5482,10 +5438,10 @@
         <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="G135" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.3">
@@ -5522,7 +5478,7 @@
         <v>227</v>
       </c>
       <c r="G137" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.3">
@@ -5559,7 +5515,7 @@
         <v>229</v>
       </c>
       <c r="G139" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.3">
@@ -5613,7 +5569,7 @@
         <v>231</v>
       </c>
       <c r="G142" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.3">
@@ -5667,7 +5623,7 @@
         <v>234</v>
       </c>
       <c r="G145" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.3">
@@ -5687,7 +5643,7 @@
         <v>235</v>
       </c>
       <c r="G146" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.3">
@@ -5707,7 +5663,7 @@
         <v>236</v>
       </c>
       <c r="G147" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.3">
@@ -5761,7 +5717,7 @@
         <v>239</v>
       </c>
       <c r="G150" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.3">
@@ -5781,7 +5737,7 @@
         <v>240</v>
       </c>
       <c r="G151" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.3">
@@ -5801,7 +5757,7 @@
         <v>241</v>
       </c>
       <c r="G152" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.3">
@@ -5821,7 +5777,7 @@
         <v>242</v>
       </c>
       <c r="G153" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.3">
@@ -5858,7 +5814,7 @@
         <v>244</v>
       </c>
       <c r="G155" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.3">
@@ -5929,7 +5885,7 @@
         <v>248</v>
       </c>
       <c r="G159" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.3">
@@ -5983,7 +5939,7 @@
         <v>251</v>
       </c>
       <c r="G162" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.3">
@@ -6037,7 +5993,7 @@
         <v>254</v>
       </c>
       <c r="G165" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.3">
@@ -6057,7 +6013,7 @@
         <v>255</v>
       </c>
       <c r="G166" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.3">
@@ -6094,7 +6050,7 @@
         <v>257</v>
       </c>
       <c r="G168" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.3">
@@ -6114,7 +6070,7 @@
         <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.3">
@@ -6185,7 +6141,7 @@
         <v>262</v>
       </c>
       <c r="G173" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.3">
@@ -6205,7 +6161,7 @@
         <v>263</v>
       </c>
       <c r="G174" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.3">
@@ -6242,7 +6198,7 @@
         <v>265</v>
       </c>
       <c r="G176" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.3">
@@ -6262,7 +6218,7 @@
         <v>266</v>
       </c>
       <c r="G177" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.3">
@@ -6316,7 +6272,7 @@
         <v>269</v>
       </c>
       <c r="G180" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.3">
@@ -6353,7 +6309,7 @@
         <v>271</v>
       </c>
       <c r="G182" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.3">
@@ -6424,7 +6380,7 @@
         <v>275</v>
       </c>
       <c r="G186" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.3">
@@ -6478,7 +6434,7 @@
         <v>277</v>
       </c>
       <c r="G189" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.3">
@@ -6532,7 +6488,7 @@
         <v>280</v>
       </c>
       <c r="G192" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.3">
@@ -6620,7 +6576,7 @@
         <v>285</v>
       </c>
       <c r="G197" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.3">
@@ -6742,7 +6698,7 @@
         <v>291</v>
       </c>
       <c r="G204" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.3">
@@ -6762,7 +6718,7 @@
         <v>292</v>
       </c>
       <c r="G205" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.3">
@@ -6799,7 +6755,7 @@
         <v>294</v>
       </c>
       <c r="G207" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.3">
@@ -6819,7 +6775,7 @@
         <v>295</v>
       </c>
       <c r="G208" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.3">
@@ -6870,10 +6826,10 @@
         <v>6</v>
       </c>
       <c r="F211" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="G211" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.3">
@@ -6893,7 +6849,7 @@
         <v>298</v>
       </c>
       <c r="G212" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.3">
@@ -6913,7 +6869,7 @@
         <v>299</v>
       </c>
       <c r="G213" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.3">
@@ -6933,7 +6889,7 @@
         <v>300</v>
       </c>
       <c r="G214" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.3">
@@ -6984,7 +6940,7 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="G217" t="s">
         <v>679</v>
@@ -7041,7 +6997,7 @@
         <v>305</v>
       </c>
       <c r="G220" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.3">
@@ -7061,7 +7017,7 @@
         <v>306</v>
       </c>
       <c r="G221" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.3">
@@ -7081,7 +7037,7 @@
         <v>307</v>
       </c>
       <c r="G222" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.3">
@@ -7135,7 +7091,7 @@
         <v>309</v>
       </c>
       <c r="G225" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.3">
@@ -7189,7 +7145,7 @@
         <v>312</v>
       </c>
       <c r="G228" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.3">
@@ -7263,7 +7219,7 @@
         <v>316</v>
       </c>
       <c r="G232" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.3">
@@ -7368,7 +7324,7 @@
         <v>321</v>
       </c>
       <c r="G238" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.3">
@@ -7388,7 +7344,7 @@
         <v>322</v>
       </c>
       <c r="G239" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.3">
@@ -7425,7 +7381,7 @@
         <v>324</v>
       </c>
       <c r="G241" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.3">
@@ -7496,7 +7452,7 @@
         <v>328</v>
       </c>
       <c r="G245" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.3">
@@ -7516,7 +7472,7 @@
         <v>329</v>
       </c>
       <c r="G246" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.3">
@@ -7621,7 +7577,7 @@
         <v>334</v>
       </c>
       <c r="G252" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.3">
@@ -7675,7 +7631,7 @@
         <v>337</v>
       </c>
       <c r="G255" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.3">
@@ -7712,7 +7668,7 @@
         <v>339</v>
       </c>
       <c r="G257" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
@@ -7749,7 +7705,7 @@
         <v>341</v>
       </c>
       <c r="G259" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
@@ -7803,7 +7759,7 @@
         <v>343</v>
       </c>
       <c r="G262" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
@@ -7942,7 +7898,7 @@
         <v>350</v>
       </c>
       <c r="G270" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
@@ -7979,7 +7935,7 @@
         <v>352</v>
       </c>
       <c r="G272" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.3">
@@ -8033,7 +7989,7 @@
         <v>355</v>
       </c>
       <c r="G275" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.3">
@@ -8053,7 +8009,7 @@
         <v>356</v>
       </c>
       <c r="G276" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.3">
@@ -8090,7 +8046,7 @@
         <v>358</v>
       </c>
       <c r="G278" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.3">
@@ -8144,7 +8100,7 @@
         <v>361</v>
       </c>
       <c r="G281" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.3">
@@ -8280,10 +8236,10 @@
         <v>4</v>
       </c>
       <c r="F289" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="G289" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.3">
@@ -8337,7 +8293,7 @@
         <v>372</v>
       </c>
       <c r="G292" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.3">
@@ -8357,7 +8313,7 @@
         <v>372</v>
       </c>
       <c r="G293" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.3">
@@ -8394,7 +8350,7 @@
         <v>374</v>
       </c>
       <c r="G295" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.3">
@@ -8448,7 +8404,7 @@
         <v>377</v>
       </c>
       <c r="G298" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.3">
@@ -8468,7 +8424,7 @@
         <v>378</v>
       </c>
       <c r="G299" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.3">
@@ -8539,7 +8495,7 @@
         <v>382</v>
       </c>
       <c r="G303" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.3">
@@ -8559,7 +8515,7 @@
         <v>383</v>
       </c>
       <c r="G304" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.3">
@@ -8579,7 +8535,7 @@
         <v>384</v>
       </c>
       <c r="G305" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.3">
@@ -8633,7 +8589,7 @@
         <v>386</v>
       </c>
       <c r="G308" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.3">
@@ -8653,7 +8609,7 @@
         <v>387</v>
       </c>
       <c r="G309" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.3">
@@ -8673,7 +8629,7 @@
         <v>388</v>
       </c>
       <c r="G310" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.3">
@@ -8778,7 +8734,7 @@
         <v>393</v>
       </c>
       <c r="G316" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.3">
@@ -8815,7 +8771,7 @@
         <v>395</v>
       </c>
       <c r="G318" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.3">
@@ -8835,7 +8791,7 @@
         <v>396</v>
       </c>
       <c r="G319" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.3">
@@ -8872,7 +8828,7 @@
         <v>398</v>
       </c>
       <c r="G321" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.3">
@@ -8926,7 +8882,7 @@
         <v>400</v>
       </c>
       <c r="G324" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.3">
@@ -8963,7 +8919,7 @@
         <v>401</v>
       </c>
       <c r="G326" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.3">
@@ -8983,7 +8939,7 @@
         <v>402</v>
       </c>
       <c r="G327" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.3">
@@ -9003,7 +8959,7 @@
         <v>403</v>
       </c>
       <c r="G328" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.3">
@@ -9059,7 +9015,7 @@
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -9074,12 +9030,12 @@
         <v>407</v>
       </c>
       <c r="G332" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -9096,7 +9052,7 @@
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
@@ -9113,7 +9069,7 @@
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C335" t="s">
         <v>52</v>
@@ -9128,12 +9084,12 @@
         <v>409</v>
       </c>
       <c r="G335" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C336" t="s">
         <v>62</v>
@@ -9150,7 +9106,7 @@
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C337" t="s">
         <v>61</v>
@@ -9167,7 +9123,7 @@
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C338" t="s">
         <v>60</v>
@@ -9182,12 +9138,12 @@
         <v>412</v>
       </c>
       <c r="G338" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C339" t="s">
         <v>52</v>
@@ -9202,12 +9158,12 @@
         <v>413</v>
       </c>
       <c r="G339" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C340" t="s">
         <v>49</v>
@@ -9222,12 +9178,12 @@
         <v>414</v>
       </c>
       <c r="G340" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C341" t="s">
         <v>50</v>
@@ -9244,7 +9200,7 @@
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C342" t="s">
         <v>44</v>
@@ -9261,7 +9217,7 @@
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C343" t="s">
         <v>53</v>
@@ -9276,12 +9232,12 @@
         <v>417</v>
       </c>
       <c r="G343" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C344" t="s">
         <v>46</v>
@@ -9296,12 +9252,12 @@
         <v>418</v>
       </c>
       <c r="G344" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C345" t="s">
         <v>59</v>
@@ -9318,7 +9274,7 @@
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C346" t="s">
         <v>52</v>
@@ -9335,7 +9291,7 @@
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C347" t="s">
         <v>49</v>
@@ -9352,7 +9308,7 @@
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C348" t="s">
         <v>61</v>
@@ -9367,12 +9323,12 @@
         <v>422</v>
       </c>
       <c r="G348" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C349" t="s">
         <v>40</v>
@@ -9387,12 +9343,12 @@
         <v>423</v>
       </c>
       <c r="G349" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C350" t="s">
         <v>44</v>
@@ -9407,12 +9363,12 @@
         <v>424</v>
       </c>
       <c r="G350" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C351" t="s">
         <v>31</v>
@@ -9429,7 +9385,7 @@
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C352" t="s">
         <v>4</v>
@@ -9444,12 +9400,12 @@
         <v>426</v>
       </c>
       <c r="G352" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C353" t="s">
         <v>42</v>
@@ -9466,7 +9422,7 @@
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C354" t="s">
         <v>42</v>
@@ -9481,12 +9437,12 @@
         <v>428</v>
       </c>
       <c r="G354" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C355" t="s">
         <v>58</v>
@@ -9501,12 +9457,12 @@
         <v>429</v>
       </c>
       <c r="G355" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C356" t="s">
         <v>58</v>
@@ -9523,7 +9479,7 @@
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C357" t="s">
         <v>57</v>
@@ -9538,12 +9494,12 @@
         <v>431</v>
       </c>
       <c r="G357" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C358" t="s">
         <v>59</v>
@@ -9560,7 +9516,7 @@
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C359" t="s">
         <v>52</v>
@@ -9575,12 +9531,12 @@
         <v>433</v>
       </c>
       <c r="G359" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C360" t="s">
         <v>62</v>
@@ -9597,7 +9553,7 @@
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C361" t="s">
         <v>62</v>
@@ -9614,7 +9570,7 @@
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C362" t="s">
         <v>26</v>
@@ -9629,12 +9585,12 @@
         <v>436</v>
       </c>
       <c r="G362" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C363" t="s">
         <v>57</v>
@@ -9649,12 +9605,12 @@
         <v>437</v>
       </c>
       <c r="G363" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C364" t="s">
         <v>51</v>
@@ -9671,7 +9627,7 @@
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C365" t="s">
         <v>50</v>
@@ -9688,7 +9644,7 @@
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C366" t="s">
         <v>62</v>
@@ -9703,12 +9659,12 @@
         <v>440</v>
       </c>
       <c r="G366" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C367" t="s">
         <v>3</v>
@@ -9725,7 +9681,7 @@
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C368" t="s">
         <v>4</v>
@@ -9742,7 +9698,7 @@
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C369" t="s">
         <v>4</v>
@@ -9759,7 +9715,7 @@
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C370" t="s">
         <v>22</v>
@@ -9776,7 +9732,7 @@
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C371" t="s">
         <v>30</v>
@@ -9793,7 +9749,7 @@
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C372" t="s">
         <v>26</v>
@@ -9810,7 +9766,7 @@
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C373" t="s">
         <v>2</v>
@@ -9825,12 +9781,12 @@
         <v>447</v>
       </c>
       <c r="G373" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -9845,12 +9801,12 @@
         <v>448</v>
       </c>
       <c r="G374" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C375" t="s">
         <v>18</v>
@@ -9867,7 +9823,7 @@
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C376" t="s">
         <v>2</v>
@@ -9884,7 +9840,7 @@
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
@@ -9899,12 +9855,12 @@
         <v>450</v>
       </c>
       <c r="G377" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C378" t="s">
         <v>2</v>
@@ -9919,12 +9875,12 @@
         <v>451</v>
       </c>
       <c r="G378" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C379" t="s">
         <v>3</v>
@@ -9941,7 +9897,7 @@
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
@@ -9958,7 +9914,7 @@
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C381" t="s">
         <v>18</v>
@@ -9975,7 +9931,7 @@
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
@@ -9990,12 +9946,12 @@
         <v>454</v>
       </c>
       <c r="G382" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C383" t="s">
         <v>17</v>
@@ -10010,12 +9966,12 @@
         <v>455</v>
       </c>
       <c r="G383" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C384" t="s">
         <v>22</v>
@@ -10032,7 +9988,7 @@
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C385" t="s">
         <v>7</v>
@@ -10049,7 +10005,7 @@
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C386" t="s">
         <v>17</v>
@@ -10066,7 +10022,7 @@
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C387" t="s">
         <v>51</v>
@@ -10081,12 +10037,12 @@
         <v>458</v>
       </c>
       <c r="G387" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C388" t="s">
         <v>10</v>
@@ -10103,7 +10059,7 @@
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C389" t="s">
         <v>10</v>
@@ -10120,7 +10076,7 @@
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C390" t="s">
         <v>31</v>
@@ -10137,7 +10093,7 @@
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C391" t="s">
         <v>26</v>
@@ -10154,7 +10110,7 @@
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C392" t="s">
         <v>37</v>
@@ -10171,7 +10127,7 @@
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C393" t="s">
         <v>40</v>
@@ -10188,7 +10144,7 @@
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C394" t="s">
         <v>40</v>
@@ -10203,12 +10159,12 @@
         <v>464</v>
       </c>
       <c r="G394" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C395" t="s">
         <v>31</v>
@@ -10225,7 +10181,7 @@
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C396" t="s">
         <v>33</v>
@@ -10242,7 +10198,7 @@
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C397" t="s">
         <v>33</v>
@@ -10257,12 +10213,12 @@
         <v>466</v>
       </c>
       <c r="G397" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C398" t="s">
         <v>36</v>
@@ -10277,12 +10233,12 @@
         <v>467</v>
       </c>
       <c r="G398" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C399" t="s">
         <v>33</v>
@@ -10299,7 +10255,7 @@
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C400" t="s">
         <v>24</v>
@@ -10314,12 +10270,12 @@
         <v>469</v>
       </c>
       <c r="G400" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C401" t="s">
         <v>39</v>
@@ -10334,12 +10290,12 @@
         <v>470</v>
       </c>
       <c r="G401" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C402" t="s">
         <v>29</v>
@@ -10356,7 +10312,7 @@
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -10373,7 +10329,7 @@
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C404" t="s">
         <v>40</v>
@@ -10390,7 +10346,7 @@
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C405" t="s">
         <v>40</v>
@@ -10407,7 +10363,7 @@
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C406" t="s">
         <v>40</v>
@@ -10424,7 +10380,7 @@
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C407" t="s">
         <v>4</v>
@@ -10439,12 +10395,12 @@
         <v>476</v>
       </c>
       <c r="G407" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C408" t="s">
         <v>40</v>
@@ -10459,12 +10415,12 @@
         <v>477</v>
       </c>
       <c r="G408" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C409" t="s">
         <v>17</v>
@@ -10481,7 +10437,7 @@
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C410" t="s">
         <v>9</v>
@@ -10498,7 +10454,7 @@
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C411" t="s">
         <v>20</v>
@@ -10513,12 +10469,12 @@
         <v>480</v>
       </c>
       <c r="G411" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C412" t="s">
         <v>56</v>
@@ -10533,12 +10489,12 @@
         <v>481</v>
       </c>
       <c r="G412" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C413" t="s">
         <v>61</v>
@@ -10555,7 +10511,7 @@
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C414" t="s">
         <v>33</v>
@@ -10572,7 +10528,7 @@
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C415" t="s">
         <v>33</v>
@@ -10587,7 +10543,7 @@
         <v>484</v>
       </c>
       <c r="G415" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.3">
@@ -10641,7 +10597,7 @@
         <v>488</v>
       </c>
       <c r="G418" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.3">
@@ -10661,7 +10617,7 @@
         <v>489</v>
       </c>
       <c r="G419" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.3">
@@ -10681,7 +10637,7 @@
         <v>490</v>
       </c>
       <c r="G420" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.3">
@@ -10701,7 +10657,7 @@
         <v>491</v>
       </c>
       <c r="G421" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.3">
@@ -10738,7 +10694,7 @@
         <v>493</v>
       </c>
       <c r="G423" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.3">
@@ -10775,7 +10731,7 @@
         <v>494</v>
       </c>
       <c r="G425" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.3">
@@ -10812,7 +10768,7 @@
         <v>495</v>
       </c>
       <c r="G427" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.3">
@@ -10832,7 +10788,7 @@
         <v>496</v>
       </c>
       <c r="G428" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.3">
@@ -10852,7 +10808,7 @@
         <v>497</v>
       </c>
       <c r="G429" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.3">
@@ -10923,7 +10879,7 @@
         <v>500</v>
       </c>
       <c r="G433" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="434" spans="2:7" x14ac:dyDescent="0.3">
@@ -10960,7 +10916,7 @@
         <v>502</v>
       </c>
       <c r="G435" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.3">
@@ -10980,7 +10936,7 @@
         <v>503</v>
       </c>
       <c r="G436" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.3">
@@ -11034,7 +10990,7 @@
         <v>506</v>
       </c>
       <c r="G439" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.3">
@@ -11054,7 +11010,7 @@
         <v>507</v>
       </c>
       <c r="G440" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.3">
@@ -11122,10 +11078,10 @@
         <v>14</v>
       </c>
       <c r="F444" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="G444" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.3">
@@ -11145,7 +11101,7 @@
         <v>511</v>
       </c>
       <c r="G445" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.3">
@@ -11216,7 +11172,7 @@
         <v>515</v>
       </c>
       <c r="G449" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.3">
@@ -11236,7 +11192,7 @@
         <v>516</v>
       </c>
       <c r="G450" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.3">
@@ -11341,7 +11297,7 @@
         <v>522</v>
       </c>
       <c r="G456" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.3">
@@ -11378,7 +11334,7 @@
         <v>524</v>
       </c>
       <c r="G458" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.3">
@@ -11466,7 +11422,7 @@
         <v>530</v>
       </c>
       <c r="G463" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="464" spans="2:7" x14ac:dyDescent="0.3">
@@ -11503,7 +11459,7 @@
         <v>532</v>
       </c>
       <c r="G465" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.3">
@@ -11625,7 +11581,7 @@
         <v>537</v>
       </c>
       <c r="G472" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.3">
@@ -11679,7 +11635,7 @@
         <v>539</v>
       </c>
       <c r="G475" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
     </row>
     <row r="476" spans="2:7" x14ac:dyDescent="0.3">
@@ -11699,7 +11655,7 @@
         <v>540</v>
       </c>
       <c r="G476" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.3">
@@ -11753,7 +11709,7 @@
         <v>543</v>
       </c>
       <c r="G479" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
     </row>
     <row r="480" spans="2:7" x14ac:dyDescent="0.3">
@@ -11773,7 +11729,7 @@
         <v>544</v>
       </c>
       <c r="G480" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.3">
@@ -11810,7 +11766,7 @@
         <v>546</v>
       </c>
       <c r="G482" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="483" spans="2:7" x14ac:dyDescent="0.3">
@@ -11847,7 +11803,7 @@
         <v>548</v>
       </c>
       <c r="G484" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="485" spans="2:7" x14ac:dyDescent="0.3">
@@ -11867,7 +11823,7 @@
         <v>549</v>
       </c>
       <c r="G485" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="486" spans="2:7" x14ac:dyDescent="0.3">
@@ -11887,7 +11843,7 @@
         <v>550</v>
       </c>
       <c r="G486" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.3">
@@ -11907,7 +11863,7 @@
         <v>551</v>
       </c>
       <c r="G487" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="488" spans="2:7" x14ac:dyDescent="0.3">
@@ -11995,7 +11951,7 @@
         <v>555</v>
       </c>
       <c r="G492" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="493" spans="2:7" x14ac:dyDescent="0.3">
@@ -12049,7 +12005,7 @@
         <v>558</v>
       </c>
       <c r="G495" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
     </row>
     <row r="496" spans="2:7" x14ac:dyDescent="0.3">
@@ -12103,7 +12059,7 @@
         <v>559</v>
       </c>
       <c r="G498" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="499" spans="2:7" x14ac:dyDescent="0.3">
@@ -12208,7 +12164,7 @@
         <v>561</v>
       </c>
       <c r="G504" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="505" spans="2:7" x14ac:dyDescent="0.3">
@@ -12262,7 +12218,7 @@
         <v>564</v>
       </c>
       <c r="G507" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="508" spans="2:7" x14ac:dyDescent="0.3">
@@ -12282,7 +12238,7 @@
         <v>565</v>
       </c>
       <c r="G508" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="509" spans="2:7" x14ac:dyDescent="0.3">
@@ -12319,7 +12275,7 @@
         <v>567</v>
       </c>
       <c r="G510" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="511" spans="2:7" x14ac:dyDescent="0.3">
@@ -12339,7 +12295,7 @@
         <v>568</v>
       </c>
       <c r="G511" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="512" spans="2:7" x14ac:dyDescent="0.3">
@@ -12376,7 +12332,7 @@
         <v>570</v>
       </c>
       <c r="G513" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
     </row>
     <row r="514" spans="2:7" x14ac:dyDescent="0.3">
@@ -12393,7 +12349,7 @@
         <v>2</v>
       </c>
       <c r="F514" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
     </row>
     <row r="515" spans="2:7" x14ac:dyDescent="0.3">
@@ -12464,7 +12420,7 @@
         <v>573</v>
       </c>
       <c r="G518" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="519" spans="2:7" x14ac:dyDescent="0.3">
@@ -12501,7 +12457,7 @@
         <v>574</v>
       </c>
       <c r="G520" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="521" spans="2:7" x14ac:dyDescent="0.3">
@@ -12572,7 +12528,7 @@
         <v>577</v>
       </c>
       <c r="G524" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="525" spans="2:7" x14ac:dyDescent="0.3">
@@ -12592,7 +12548,7 @@
         <v>577</v>
       </c>
       <c r="G525" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
     </row>
     <row r="526" spans="2:7" x14ac:dyDescent="0.3">
@@ -12612,7 +12568,7 @@
         <v>578</v>
       </c>
       <c r="G526" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="527" spans="2:7" x14ac:dyDescent="0.3">
@@ -12649,7 +12605,7 @@
         <v>580</v>
       </c>
       <c r="G528" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
     </row>
     <row r="529" spans="2:7" x14ac:dyDescent="0.3">
@@ -12669,7 +12625,7 @@
         <v>581</v>
       </c>
       <c r="G529" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
     </row>
     <row r="530" spans="2:7" x14ac:dyDescent="0.3">
@@ -12723,7 +12679,7 @@
         <v>583</v>
       </c>
       <c r="G532" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
     </row>
     <row r="533" spans="2:7" x14ac:dyDescent="0.3">
@@ -12743,7 +12699,7 @@
         <v>584</v>
       </c>
       <c r="G533" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="534" spans="2:7" x14ac:dyDescent="0.3">
@@ -12797,7 +12753,7 @@
         <v>585</v>
       </c>
       <c r="G536" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="537" spans="2:7" x14ac:dyDescent="0.3">
@@ -12851,7 +12807,7 @@
         <v>587</v>
       </c>
       <c r="G539" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="540" spans="2:7" x14ac:dyDescent="0.3">
@@ -12888,7 +12844,7 @@
         <v>589</v>
       </c>
       <c r="G541" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="542" spans="2:7" x14ac:dyDescent="0.3">
@@ -12925,7 +12881,7 @@
         <v>590</v>
       </c>
       <c r="G543" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="544" spans="2:7" x14ac:dyDescent="0.3">
@@ -13030,7 +12986,7 @@
         <v>594</v>
       </c>
       <c r="G549" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
     </row>
     <row r="550" spans="2:7" x14ac:dyDescent="0.3">
@@ -13050,7 +13006,7 @@
         <v>595</v>
       </c>
       <c r="G550" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="551" spans="2:7" x14ac:dyDescent="0.3">
@@ -13104,7 +13060,7 @@
         <v>598</v>
       </c>
       <c r="G553" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="554" spans="2:7" x14ac:dyDescent="0.3">
@@ -13141,7 +13097,7 @@
         <v>600</v>
       </c>
       <c r="G555" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="556" spans="2:7" x14ac:dyDescent="0.3">
@@ -13161,7 +13117,7 @@
         <v>600</v>
       </c>
       <c r="G556" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="557" spans="2:7" x14ac:dyDescent="0.3">
@@ -13249,7 +13205,7 @@
         <v>604</v>
       </c>
       <c r="G561" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="562" spans="2:7" x14ac:dyDescent="0.3">
@@ -13303,7 +13259,7 @@
         <v>607</v>
       </c>
       <c r="G564" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="565" spans="2:7" x14ac:dyDescent="0.3">
@@ -13374,7 +13330,7 @@
         <v>611</v>
       </c>
       <c r="G568" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="569" spans="2:7" x14ac:dyDescent="0.3">
@@ -13462,7 +13418,7 @@
         <v>615</v>
       </c>
       <c r="G573" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="574" spans="2:7" x14ac:dyDescent="0.3">
@@ -13482,7 +13438,7 @@
         <v>616</v>
       </c>
       <c r="G574" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="575" spans="2:7" x14ac:dyDescent="0.3">
@@ -13519,7 +13475,7 @@
         <v>618</v>
       </c>
       <c r="G576" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="577" spans="2:7" x14ac:dyDescent="0.3">
@@ -13539,7 +13495,7 @@
         <v>619</v>
       </c>
       <c r="G577" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="578" spans="2:7" x14ac:dyDescent="0.3">
@@ -13559,7 +13515,7 @@
         <v>620</v>
       </c>
       <c r="G578" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="579" spans="2:7" x14ac:dyDescent="0.3">
@@ -13613,7 +13569,7 @@
         <v>623</v>
       </c>
       <c r="G581" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="582" spans="2:7" x14ac:dyDescent="0.3">
@@ -13633,7 +13589,7 @@
         <v>624</v>
       </c>
       <c r="G582" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
     </row>
     <row r="583" spans="2:7" x14ac:dyDescent="0.3">
@@ -13670,7 +13626,7 @@
         <v>626</v>
       </c>
       <c r="G584" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="585" spans="2:7" x14ac:dyDescent="0.3">
@@ -13724,7 +13680,7 @@
         <v>628</v>
       </c>
       <c r="G587" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
     </row>
     <row r="588" spans="2:7" x14ac:dyDescent="0.3">
@@ -13812,7 +13768,7 @@
         <v>632</v>
       </c>
       <c r="G592" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="593" spans="2:7" x14ac:dyDescent="0.3">
@@ -13849,7 +13805,7 @@
         <v>633</v>
       </c>
       <c r="G594" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
     </row>
     <row r="595" spans="2:7" x14ac:dyDescent="0.3">
@@ -13886,7 +13842,7 @@
         <v>635</v>
       </c>
       <c r="G596" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="597" spans="2:7" x14ac:dyDescent="0.3">
@@ -13923,7 +13879,7 @@
         <v>636</v>
       </c>
       <c r="G598" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="599" spans="2:7" x14ac:dyDescent="0.3">
@@ -13960,7 +13916,7 @@
         <v>638</v>
       </c>
       <c r="G600" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
     </row>
     <row r="601" spans="2:7" x14ac:dyDescent="0.3">
@@ -13997,7 +13953,7 @@
         <v>138</v>
       </c>
       <c r="G602" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="603" spans="2:7" x14ac:dyDescent="0.3">
@@ -14068,7 +14024,7 @@
         <v>140</v>
       </c>
       <c r="G606" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
     </row>
     <row r="607" spans="2:7" x14ac:dyDescent="0.3">
@@ -14105,7 +14061,7 @@
         <v>141</v>
       </c>
       <c r="G608" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="609" spans="2:7" x14ac:dyDescent="0.3">
@@ -14125,7 +14081,7 @@
         <v>142</v>
       </c>
       <c r="G609" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="610" spans="2:7" x14ac:dyDescent="0.3">
@@ -14162,7 +14118,7 @@
         <v>144</v>
       </c>
       <c r="G611" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
     </row>
     <row r="612" spans="2:7" x14ac:dyDescent="0.3">
@@ -14199,7 +14155,7 @@
         <v>146</v>
       </c>
       <c r="G613" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="614" spans="2:7" x14ac:dyDescent="0.3">
@@ -14236,7 +14192,7 @@
         <v>148</v>
       </c>
       <c r="G615" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
     </row>
     <row r="616" spans="2:7" x14ac:dyDescent="0.3">
@@ -14358,7 +14314,7 @@
         <v>154</v>
       </c>
       <c r="G622" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
     </row>
     <row r="623" spans="2:7" x14ac:dyDescent="0.3">
@@ -14378,7 +14334,7 @@
         <v>155</v>
       </c>
       <c r="G623" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
     </row>
     <row r="624" spans="2:7" x14ac:dyDescent="0.3">
@@ -14398,7 +14354,7 @@
         <v>156</v>
       </c>
       <c r="G624" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
     </row>
     <row r="625" spans="2:7" x14ac:dyDescent="0.3">
@@ -14418,7 +14374,7 @@
         <v>156</v>
       </c>
       <c r="G625" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="626" spans="2:7" x14ac:dyDescent="0.3">
@@ -14455,7 +14411,7 @@
         <v>157</v>
       </c>
       <c r="G627" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="628" spans="2:7" x14ac:dyDescent="0.3">
@@ -14475,7 +14431,7 @@
         <v>158</v>
       </c>
       <c r="G628" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="629" spans="2:7" x14ac:dyDescent="0.3">
@@ -14529,7 +14485,7 @@
         <v>161</v>
       </c>
       <c r="G631" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="632" spans="2:7" x14ac:dyDescent="0.3">
@@ -14566,7 +14522,7 @@
         <v>163</v>
       </c>
       <c r="G633" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="634" spans="2:7" x14ac:dyDescent="0.3">
@@ -14705,7 +14661,7 @@
         <v>169</v>
       </c>
       <c r="G641" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
     </row>
     <row r="642" spans="2:7" x14ac:dyDescent="0.3">
@@ -14725,7 +14681,7 @@
         <v>170</v>
       </c>
       <c r="G642" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
     </row>
     <row r="643" spans="2:7" x14ac:dyDescent="0.3">
@@ -14772,7 +14728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A43065-6C1A-431E-9338-F02902B7F9EF}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B34" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -18073,72 +18029,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB95E44-9F4F-4756-BE84-AC6790AAC1E1}">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H1" t="s">
+        <v>733</v>
+      </c>
+      <c r="I1" t="s">
+        <v>734</v>
+      </c>
+      <c r="J1" t="s">
+        <v>735</v>
+      </c>
+      <c r="K1" t="s">
+        <v>736</v>
+      </c>
+      <c r="L1" t="s">
+        <v>737</v>
+      </c>
+      <c r="M1" t="s">
+        <v>738</v>
+      </c>
+      <c r="N1" t="s">
+        <v>739</v>
+      </c>
+      <c r="O1" t="s">
         <v>740</v>
       </c>
-      <c r="F1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>741</v>
       </c>
-      <c r="H1" t="s">
-        <v>747</v>
-      </c>
-      <c r="I1" t="s">
-        <v>748</v>
-      </c>
-      <c r="J1" t="s">
-        <v>749</v>
-      </c>
-      <c r="K1" t="s">
-        <v>750</v>
-      </c>
-      <c r="L1" t="s">
-        <v>751</v>
-      </c>
-      <c r="M1" t="s">
-        <v>752</v>
-      </c>
-      <c r="N1" t="s">
-        <v>753</v>
-      </c>
-      <c r="O1" t="s">
-        <v>754</v>
-      </c>
-      <c r="P1" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>742</v>
-      </c>
-      <c r="F2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+      <c r="B2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D2" t="s">
+        <v>836</v>
+      </c>
+      <c r="E2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B3" t="s">
         <v>651</v>
@@ -18147,47 +18112,50 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B4" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C4" t="s">
         <v>660</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C5" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
         <v>710</v>
       </c>
-      <c r="F5" t="s">
-        <v>744</v>
+      <c r="E5" t="s">
+        <v>729</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -18199,83 +18167,83 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B6" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C6" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
         <v>717</v>
       </c>
-      <c r="F6" t="s">
-        <v>744</v>
+      <c r="E6" t="s">
+        <v>729</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
       <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B7" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C7" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
         <v>718</v>
       </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
       <c r="G7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -18290,10 +18258,10 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -18304,46 +18272,46 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B8" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
         <v>716</v>
       </c>
-      <c r="F8" t="s">
-        <v>744</v>
+      <c r="E8" t="s">
+        <v>729</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -18354,209 +18322,209 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B9" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C9" t="s">
         <v>666</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B10" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C10" t="s">
-        <v>743</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
         <v>715</v>
       </c>
-      <c r="F10" t="s">
-        <v>744</v>
+      <c r="E10" t="s">
+        <v>729</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B11" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C11" t="s">
-        <v>743</v>
+        <v>666</v>
       </c>
       <c r="D11" t="s">
         <v>722</v>
       </c>
-      <c r="F11" t="s">
-        <v>744</v>
+      <c r="E11" t="s">
+        <v>729</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B12" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C12" t="s">
-        <v>743</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
         <v>723</v>
       </c>
-      <c r="F12" t="s">
-        <v>744</v>
+      <c r="E12" t="s">
+        <v>729</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P12">
-        <v>12</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B13" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C13" t="s">
         <v>657</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B14" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C14" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D14" t="s">
         <v>721</v>
       </c>
-      <c r="F14" t="s">
-        <v>744</v>
+      <c r="E14" t="s">
+        <v>729</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -18565,171 +18533,171 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B15" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C15" t="s">
         <v>656</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B16" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C16" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D16" t="s">
         <v>709</v>
       </c>
-      <c r="F16" t="s">
-        <v>744</v>
+      <c r="E16" t="s">
+        <v>729</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B17" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C17" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D17" t="s">
         <v>699</v>
       </c>
-      <c r="F17" t="s">
-        <v>744</v>
+      <c r="E17" t="s">
+        <v>729</v>
+      </c>
+      <c r="F17">
+        <v>27</v>
       </c>
       <c r="G17">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
         <v>3</v>
       </c>
-      <c r="K17">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>5</v>
       </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B18" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C18" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D18" t="s">
         <v>720</v>
       </c>
-      <c r="F18" t="s">
-        <v>744</v>
+      <c r="E18" t="s">
+        <v>729</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -18746,40 +18714,40 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B19" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C19" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D19" t="s">
         <v>719</v>
       </c>
-      <c r="F19" t="s">
-        <v>744</v>
+      <c r="E19" t="s">
+        <v>729</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -18788,53 +18756,53 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B20" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C20" t="s">
         <v>658</v>
       </c>
-      <c r="F20">
+      <c r="E20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B21" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C21" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="D21" t="s">
         <v>711</v>
       </c>
-      <c r="F21" t="s">
-        <v>744</v>
+      <c r="E21" t="s">
+        <v>729</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -18852,164 +18820,161 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B22" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C22" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="D22" t="s">
         <v>708</v>
       </c>
-      <c r="F22" t="s">
-        <v>744</v>
+      <c r="E22" t="s">
+        <v>729</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22">
         <v>2</v>
       </c>
       <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B23" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C23" t="s">
         <v>661</v>
       </c>
-      <c r="F23">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B24" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C24" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="D24" t="s">
         <v>707</v>
       </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
       <c r="G24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B25" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C25" t="s">
         <v>653</v>
       </c>
-      <c r="F25" t="s">
-        <v>744</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B26" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C26" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="D26" t="s">
         <v>712</v>
       </c>
-      <c r="F26" t="s">
-        <v>744</v>
+      <c r="E26">
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -19033,139 +18998,139 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B27" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C27" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="D27" t="s">
         <v>665</v>
       </c>
-      <c r="F27" t="s">
-        <v>744</v>
+      <c r="E27" t="s">
+        <v>729</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>1</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B28" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C28" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="D28" t="s">
         <v>663</v>
       </c>
-      <c r="F28" t="s">
-        <v>744</v>
+      <c r="E28" t="s">
+        <v>729</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B29" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C29" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="D29" t="s">
         <v>664</v>
       </c>
-      <c r="F29" t="s">
-        <v>744</v>
+      <c r="E29" t="s">
+        <v>729</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -19174,7 +19139,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -19188,45 +19153,45 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B30" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C30" t="s">
         <v>652</v>
       </c>
-      <c r="F30">
+      <c r="E30">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B31" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C31" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D31" t="s">
         <v>662</v>
       </c>
-      <c r="F31" t="s">
-        <v>744</v>
+      <c r="E31" t="s">
+        <v>729</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -19235,54 +19200,54 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>4</v>
-      </c>
-      <c r="Q31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B32" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C32" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D32" t="s">
         <v>669</v>
       </c>
-      <c r="F32" t="s">
-        <v>744</v>
+      <c r="E32" t="s">
+        <v>729</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -19297,95 +19262,95 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B33" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C33" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D33" t="s">
         <v>670</v>
       </c>
-      <c r="F33" t="s">
-        <v>744</v>
+      <c r="E33" t="s">
+        <v>729</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B34" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C34" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D34" t="s">
         <v>667</v>
       </c>
-      <c r="F34" t="s">
-        <v>744</v>
+      <c r="E34" t="s">
+        <v>729</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -19394,71 +19359,68 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B35" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
       <c r="C35" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D35" t="s">
         <v>668</v>
       </c>
-      <c r="F35" t="s">
-        <v>744</v>
+      <c r="E35" t="s">
+        <v>729</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>3</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B36" t="s">
         <v>654</v>
@@ -19466,54 +19428,54 @@
       <c r="E36">
         <v>176</v>
       </c>
-      <c r="F36" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B37" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C37" t="s">
         <v>660</v>
       </c>
-      <c r="F37">
+      <c r="E37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B38" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C38" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="D38" t="s">
         <v>696</v>
       </c>
-      <c r="F38" t="s">
-        <v>744</v>
+      <c r="E38" t="s">
+        <v>729</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -19530,103 +19492,106 @@
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B39" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C39" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="D39" t="s">
         <v>700</v>
       </c>
-      <c r="F39" t="s">
-        <v>744</v>
+      <c r="E39" t="s">
+        <v>729</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
       <c r="M39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>2</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B40" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C40" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B41" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C41" t="s">
         <v>657</v>
       </c>
-      <c r="F41">
+      <c r="E41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B42" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C42" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D42" t="s">
         <v>676</v>
       </c>
-      <c r="F42" t="s">
-        <v>744</v>
+      <c r="E42" t="s">
+        <v>729</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -19635,10 +19600,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -19653,42 +19618,42 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B43" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C43" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D43" t="s">
         <v>674</v>
       </c>
-      <c r="F43" t="s">
-        <v>744</v>
+      <c r="E43" t="s">
+        <v>729</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -19703,30 +19668,30 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B44" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C44" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D44" t="s">
         <v>675</v>
       </c>
-      <c r="F44" t="s">
-        <v>744</v>
+      <c r="E44" t="s">
+        <v>729</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
       </c>
       <c r="G44">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -19735,54 +19700,54 @@
         <v>2</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44">
-        <v>2</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B45" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C45" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D45" t="s">
         <v>672</v>
       </c>
-      <c r="F45" t="s">
-        <v>744</v>
+      <c r="E45" t="s">
+        <v>729</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -19791,10 +19756,10 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -19805,165 +19770,165 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B46" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C46" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D46" t="s">
         <v>673</v>
       </c>
-      <c r="F46" t="s">
-        <v>744</v>
+      <c r="E46" t="s">
+        <v>729</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>3</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
       <c r="M46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>4</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B47" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C47" t="s">
         <v>656</v>
       </c>
-      <c r="F47">
+      <c r="E47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B48" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C48" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D48" t="s">
-        <v>745</v>
-      </c>
-      <c r="F48" t="s">
-        <v>744</v>
-      </c>
-      <c r="G48">
+        <v>730</v>
+      </c>
+      <c r="E48" t="s">
+        <v>729</v>
+      </c>
+      <c r="F48">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B49" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C49" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D49" t="s">
         <v>671</v>
       </c>
-      <c r="F49" t="s">
-        <v>744</v>
+      <c r="E49" t="s">
+        <v>729</v>
+      </c>
+      <c r="F49">
+        <v>19</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
         <v>5</v>
       </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>2</v>
-      </c>
       <c r="P49">
-        <v>5</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B50" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C50" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D50" t="s">
         <v>681</v>
       </c>
-      <c r="F50" t="s">
-        <v>744</v>
+      <c r="E50" t="s">
+        <v>729</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -19984,33 +19949,33 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B51" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C51" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D51" t="s">
         <v>682</v>
       </c>
-      <c r="F51" t="s">
-        <v>744</v>
+      <c r="E51" t="s">
+        <v>729</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -20019,19 +19984,19 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -20039,31 +20004,31 @@
       <c r="P51">
         <v>0</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B52" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C52" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D52" t="s">
         <v>680</v>
       </c>
-      <c r="F52" t="s">
-        <v>744</v>
+      <c r="E52" t="s">
+        <v>729</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -20075,56 +20040,56 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52">
-        <v>2</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B53" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C53" t="s">
         <v>658</v>
       </c>
-      <c r="F53">
+      <c r="E53">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B54" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C54" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="D54" t="s">
         <v>713</v>
       </c>
-      <c r="F54" t="s">
-        <v>744</v>
+      <c r="E54" t="s">
+        <v>729</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -20139,42 +20104,42 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B55" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C55" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="D55" t="s">
         <v>678</v>
       </c>
-      <c r="F55" t="s">
-        <v>744</v>
+      <c r="E55" t="s">
+        <v>729</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -20183,19 +20148,19 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -20203,142 +20168,142 @@
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B56" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C56" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="D56" t="s">
         <v>679</v>
       </c>
-      <c r="F56" t="s">
-        <v>744</v>
+      <c r="E56" t="s">
+        <v>729</v>
+      </c>
+      <c r="F56">
+        <v>13</v>
       </c>
       <c r="G56">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56">
         <v>3</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B57" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C57" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="D57" t="s">
         <v>677</v>
       </c>
-      <c r="F57" t="s">
-        <v>744</v>
+      <c r="E57" t="s">
+        <v>729</v>
+      </c>
+      <c r="F57">
+        <v>21</v>
       </c>
       <c r="G57">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>4</v>
-      </c>
-      <c r="Q57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B58" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C58" t="s">
         <v>661</v>
       </c>
-      <c r="F58">
+      <c r="E58">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B59" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C59" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="D59" t="s">
         <v>714</v>
       </c>
-      <c r="F59" t="s">
-        <v>744</v>
+      <c r="E59" t="s">
+        <v>729</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -20356,98 +20321,98 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P59">
         <v>2</v>
       </c>
-      <c r="Q59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B60" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C60" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="D60" t="s">
         <v>685</v>
       </c>
-      <c r="F60" t="s">
-        <v>744</v>
+      <c r="E60" t="s">
+        <v>729</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B61" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C61" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="D61" t="s">
         <v>686</v>
       </c>
-      <c r="F61" t="s">
-        <v>744</v>
+      <c r="E61" t="s">
+        <v>729</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -20462,93 +20427,93 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P61">
-        <v>2</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B62" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C62" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="D62" t="s">
         <v>684</v>
       </c>
-      <c r="F62" t="s">
-        <v>744</v>
+      <c r="E62" t="s">
+        <v>729</v>
+      </c>
+      <c r="F62">
+        <v>23</v>
       </c>
       <c r="G62">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
         <v>3</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
       </c>
       <c r="N62">
         <v>3</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P62">
-        <v>6</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B63" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C63" t="s">
         <v>653</v>
       </c>
-      <c r="F63" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B64" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="C64" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B65" t="s">
         <v>659</v>
@@ -20557,187 +20522,190 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B66" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C66" t="s">
         <v>660</v>
       </c>
-      <c r="F66">
+      <c r="E66">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B67" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C67" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="D67" t="s">
         <v>683</v>
       </c>
-      <c r="F67" t="s">
-        <v>744</v>
+      <c r="E67" t="s">
+        <v>729</v>
+      </c>
+      <c r="F67">
+        <v>14</v>
       </c>
       <c r="G67">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67">
         <v>3</v>
       </c>
       <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
       <c r="N67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67">
-        <v>2</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B68" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C68" t="s">
         <v>666</v>
       </c>
-      <c r="F68" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B69" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C69" t="s">
         <v>657</v>
       </c>
-      <c r="F69">
+      <c r="E69">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B70" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C70" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D70" t="s">
         <v>689</v>
       </c>
-      <c r="F70" t="s">
-        <v>744</v>
+      <c r="E70" t="s">
+        <v>729</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
       </c>
       <c r="G70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B71" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C71" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D71" t="s">
         <v>690</v>
       </c>
-      <c r="F71" t="s">
-        <v>744</v>
+      <c r="E71" t="s">
+        <v>729</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
       </c>
       <c r="G71">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -20745,37 +20713,37 @@
       <c r="P71">
         <v>0</v>
       </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B72" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C72" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="D72" t="s">
         <v>688</v>
       </c>
-      <c r="F72" t="s">
-        <v>744</v>
+      <c r="E72" t="s">
+        <v>729</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -20795,101 +20763,101 @@
       <c r="P72">
         <v>0</v>
       </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B73" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C73" t="s">
         <v>656</v>
       </c>
-      <c r="F73">
+      <c r="E73">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B74" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C74" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D74" t="s">
         <v>703</v>
       </c>
-      <c r="F74" t="s">
-        <v>744</v>
+      <c r="E74" t="s">
+        <v>729</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74">
         <v>2</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B75" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C75" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D75" t="s">
         <v>706</v>
       </c>
-      <c r="F75" t="s">
-        <v>744</v>
+      <c r="E75" t="s">
+        <v>729</v>
+      </c>
+      <c r="F75">
+        <v>16</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -20898,42 +20866,42 @@
         <v>2</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P75">
-        <v>2</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B76" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C76" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D76" t="s">
         <v>687</v>
       </c>
-      <c r="F76" t="s">
-        <v>744</v>
+      <c r="E76" t="s">
+        <v>729</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
       </c>
       <c r="G76">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -20942,168 +20910,168 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76">
         <v>2</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B77" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C77" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D77" t="s">
         <v>659</v>
       </c>
-      <c r="F77" t="s">
-        <v>744</v>
+      <c r="E77" t="s">
+        <v>729</v>
+      </c>
+      <c r="F77">
+        <v>23</v>
       </c>
       <c r="G77">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
         <v>3</v>
       </c>
-      <c r="K77">
-        <v>4</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>4</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
       <c r="P77">
-        <v>3</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B78" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C78" t="s">
-        <v>743</v>
+        <v>656</v>
       </c>
       <c r="D78" t="s">
         <v>695</v>
       </c>
-      <c r="F78" t="s">
-        <v>744</v>
+      <c r="E78" t="s">
+        <v>729</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
       </c>
       <c r="G78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B79" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C79" t="s">
         <v>658</v>
       </c>
-      <c r="F79">
+      <c r="E79">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B80" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C80" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="D80" t="s">
         <v>693</v>
       </c>
-      <c r="F80" t="s">
-        <v>744</v>
+      <c r="E80" t="s">
+        <v>729</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -21123,37 +21091,37 @@
       <c r="P80">
         <v>0</v>
       </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B81" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C81" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="D81" t="s">
         <v>694</v>
       </c>
-      <c r="F81" t="s">
-        <v>744</v>
+      <c r="E81" t="s">
+        <v>729</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -21173,62 +21141,62 @@
       <c r="P81">
         <v>0</v>
       </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B82" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C82" t="s">
         <v>661</v>
       </c>
-      <c r="F82">
+      <c r="E82">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B83" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C83" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="D83" t="s">
-        <v>746</v>
-      </c>
-      <c r="F83" t="s">
-        <v>744</v>
-      </c>
-      <c r="G83">
+        <v>731</v>
+      </c>
+      <c r="E83" t="s">
+        <v>729</v>
+      </c>
+      <c r="F83">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B84" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C84" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="D84" t="s">
         <v>692</v>
       </c>
-      <c r="F84" t="s">
-        <v>744</v>
+      <c r="E84" t="s">
+        <v>729</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
       </c>
       <c r="G84">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -21237,16 +21205,16 @@
         <v>1</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -21255,158 +21223,158 @@
         <v>1</v>
       </c>
       <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B85" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C85" t="s">
         <v>653</v>
       </c>
-      <c r="F85">
+      <c r="E85">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B86" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C86" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="D86" t="s">
         <v>698</v>
       </c>
-      <c r="F86" t="s">
-        <v>744</v>
+      <c r="E86" t="s">
+        <v>729</v>
+      </c>
+      <c r="F86">
+        <v>12</v>
       </c>
       <c r="G86">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L86">
         <v>2</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B87" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C87" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="D87" t="s">
         <v>691</v>
       </c>
-      <c r="F87" t="s">
-        <v>744</v>
+      <c r="E87" t="s">
+        <v>729</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P87">
-        <v>2</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B88" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C88" t="s">
         <v>652</v>
       </c>
-      <c r="F88">
+      <c r="E88">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B89" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C89" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D89" t="s">
         <v>704</v>
       </c>
-      <c r="F89" t="s">
-        <v>744</v>
+      <c r="E89" t="s">
+        <v>729</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
       </c>
       <c r="G89">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -21418,124 +21386,121 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B90" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C90" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D90" t="s">
         <v>697</v>
       </c>
-      <c r="F90" t="s">
-        <v>744</v>
+      <c r="E90" t="s">
+        <v>729</v>
+      </c>
+      <c r="F90">
+        <v>16</v>
       </c>
       <c r="G90">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O90">
         <v>1</v>
       </c>
       <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B91" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C91" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="D91" t="s">
         <v>702</v>
       </c>
-      <c r="F91" t="s">
-        <v>744</v>
+      <c r="E91" t="s">
+        <v>729</v>
+      </c>
+      <c r="F91">
+        <v>26</v>
       </c>
       <c r="G91">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91">
         <v>2</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L91">
         <v>4</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N91">
         <v>3</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P91">
-        <v>2</v>
-      </c>
-      <c r="Q91">
         <v>1</v>
       </c>
     </row>
@@ -21543,137 +21508,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99384292-4979-4498-B121-5F1D74E1AE7B}">
-  <dimension ref="B2:M33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>730</v>
-      </c>
-      <c r="E2" t="s">
-        <v>731</v>
-      </c>
-      <c r="G2" t="s">
-        <v>732</v>
-      </c>
-      <c r="I2" t="s">
-        <v>733</v>
-      </c>
-      <c r="K2" t="s">
-        <v>737</v>
-      </c>
-      <c r="M2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>725</v>
-      </c>
-      <c r="C3" t="s">
-        <v>762</v>
-      </c>
-      <c r="D3" t="s">
-        <v>763</v>
-      </c>
-      <c r="K3" t="s">
-        <v>758</v>
-      </c>
-      <c r="L3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>726</v>
-      </c>
-      <c r="C13" t="s">
-        <v>674</v>
-      </c>
-      <c r="E13" t="s">
-        <v>734</v>
-      </c>
-      <c r="G13" t="s">
-        <v>737</v>
-      </c>
-      <c r="I13" t="s">
-        <v>736</v>
-      </c>
-      <c r="K13" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>727</v>
-      </c>
-      <c r="C20" t="s">
-        <v>737</v>
-      </c>
-      <c r="E20" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>728</v>
-      </c>
-      <c r="C25" t="s">
-        <v>737</v>
-      </c>
-      <c r="E25" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>729</v>
-      </c>
-      <c r="C33" t="s">
-        <v>735</v>
-      </c>
-      <c r="E33" t="s">
-        <v>737</v>
-      </c>
-      <c r="G33" t="s">
-        <v>736</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC34098-40EB-4C49-A1F6-3D70BE00DEF1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/qualitative_analysis/analysis_interviews/explication_interviews.xlsx
+++ b/qualitative_analysis/analysis_interviews/explication_interviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSIA\Masterarbeit\masterarbeit\qualitative_analysis\analysis_interviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98317BB-BECE-4106-8F17-3D4CE17B7313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADFC19B-9467-4B42-B73E-12B90F5CD349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8295" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{0BF5162F-D70E-46AA-A905-2549963B1D89}"/>
   </bookViews>
@@ -21,6 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">explication_interviews!$B$1:$H$644</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gesamt_codes!$A$1:$N$65</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">codematrix!$B$90:$O$90</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">codematrix!$P$1:$P$89</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">codematrix!$P$90</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">codematrix!$B$90:$O$90</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">codematrix!$P$1:$P$89</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">codematrix!$P$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="840">
   <si>
     <t>Code</t>
   </si>
@@ -2221,9 +2227,6 @@
     <t>Ich meine Blockchain gibt einfach die Möglichkeit einfach auch Dinge langfristig und im Detail einfach auch nachzuverfolgen. Ich glaube jetzt, bei dem Zeittausch ist das nicht notwendig. Weil im Prinzip ist es ja da Leistung und dort Leistung in irgendeiner Form eingebracht und verwaltet, glaube jetzt nicht, dass da und letztendlich ist die Verwaltung und die Umsetzung von Blockchain Technologie und den ganzen Prozessen doch relativ aufwändig und schafft in dem Umfeld nicht unbedingt einen Nutzen.</t>
   </si>
   <si>
-    <t>Liste der Codes</t>
-  </si>
-  <si>
     <t>Codesystem</t>
   </si>
   <si>
@@ -2558,6 +2561,12 @@
   </si>
   <si>
     <t>Summe DSRP</t>
+  </si>
+  <si>
+    <t>Technologisierung</t>
+  </si>
+  <si>
+    <t>Arbeitsmarkt/Gesellschaft/Bildung/Bildung</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +3007,7 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -3018,7 +3027,7 @@
         <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -3038,7 +3047,7 @@
         <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -3058,7 +3067,7 @@
         <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -3078,7 +3087,7 @@
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -3098,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -3135,7 +3144,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -3155,7 +3164,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -3175,7 +3184,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -3212,7 +3221,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -3249,7 +3258,7 @@
         <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -3269,7 +3278,7 @@
         <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -3289,7 +3298,7 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -3309,7 +3318,7 @@
         <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -3329,7 +3338,7 @@
         <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -3366,7 +3375,7 @@
         <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -3420,7 +3429,7 @@
         <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -3437,10 +3446,10 @@
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -3460,7 +3469,7 @@
         <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -3480,7 +3489,7 @@
         <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -3500,7 +3509,7 @@
         <v>95</v>
       </c>
       <c r="G30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
@@ -3554,7 +3563,7 @@
         <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -3574,7 +3583,7 @@
         <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -3594,7 +3603,7 @@
         <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -3611,10 +3620,10 @@
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
@@ -3634,7 +3643,7 @@
         <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -3671,7 +3680,7 @@
         <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
@@ -3691,7 +3700,7 @@
         <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
@@ -3711,7 +3720,7 @@
         <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
@@ -3731,7 +3740,7 @@
         <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
@@ -3768,7 +3777,7 @@
         <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -3788,7 +3797,7 @@
         <v>109</v>
       </c>
       <c r="G45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
@@ -3859,7 +3868,7 @@
         <v>113</v>
       </c>
       <c r="G49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
@@ -3879,7 +3888,7 @@
         <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -3916,7 +3925,7 @@
         <v>116</v>
       </c>
       <c r="G52" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
@@ -3936,7 +3945,7 @@
         <v>117</v>
       </c>
       <c r="G53" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
@@ -3956,7 +3965,7 @@
         <v>118</v>
       </c>
       <c r="G54" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
@@ -4044,7 +4053,7 @@
         <v>122</v>
       </c>
       <c r="G59" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
@@ -4064,7 +4073,7 @@
         <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
@@ -4084,7 +4093,7 @@
         <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
@@ -4172,7 +4181,7 @@
         <v>129</v>
       </c>
       <c r="G66" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
@@ -4192,7 +4201,7 @@
         <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
@@ -4280,7 +4289,7 @@
         <v>135</v>
       </c>
       <c r="G72" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
@@ -4334,7 +4343,7 @@
         <v>175</v>
       </c>
       <c r="G75" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
@@ -4354,7 +4363,7 @@
         <v>176</v>
       </c>
       <c r="G76" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
@@ -4374,7 +4383,7 @@
         <v>177</v>
       </c>
       <c r="G77" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
@@ -4394,7 +4403,7 @@
         <v>178</v>
       </c>
       <c r="G78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
@@ -4465,7 +4474,7 @@
         <v>181</v>
       </c>
       <c r="G82" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
@@ -4604,7 +4613,7 @@
         <v>187</v>
       </c>
       <c r="H90" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
@@ -4624,7 +4633,7 @@
         <v>188</v>
       </c>
       <c r="G91" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
@@ -4661,7 +4670,7 @@
         <v>190</v>
       </c>
       <c r="G93" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.3">
@@ -4698,7 +4707,7 @@
         <v>192</v>
       </c>
       <c r="G95" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
@@ -4735,7 +4744,7 @@
         <v>194</v>
       </c>
       <c r="G97" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
@@ -4755,7 +4764,7 @@
         <v>195</v>
       </c>
       <c r="G98" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
@@ -4775,7 +4784,7 @@
         <v>196</v>
       </c>
       <c r="G99" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
@@ -4795,7 +4804,7 @@
         <v>197</v>
       </c>
       <c r="G100" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
@@ -4832,7 +4841,7 @@
         <v>199</v>
       </c>
       <c r="G102" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
@@ -4852,7 +4861,7 @@
         <v>200</v>
       </c>
       <c r="G103" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
@@ -4906,7 +4915,7 @@
         <v>203</v>
       </c>
       <c r="G106" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
@@ -4960,7 +4969,7 @@
         <v>206</v>
       </c>
       <c r="G109" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
@@ -5014,7 +5023,7 @@
         <v>209</v>
       </c>
       <c r="G112" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
@@ -5091,7 +5100,7 @@
         <v>213</v>
       </c>
       <c r="G116" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
@@ -5111,7 +5120,7 @@
         <v>213</v>
       </c>
       <c r="G117" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
@@ -5131,7 +5140,7 @@
         <v>214</v>
       </c>
       <c r="G118" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
@@ -5151,7 +5160,7 @@
         <v>215</v>
       </c>
       <c r="G119" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
@@ -5205,7 +5214,7 @@
         <v>217</v>
       </c>
       <c r="G122" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
@@ -5242,7 +5251,7 @@
         <v>219</v>
       </c>
       <c r="G124" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
@@ -5438,10 +5447,10 @@
         <v>6</v>
       </c>
       <c r="F135" t="s">
+        <v>781</v>
+      </c>
+      <c r="G135" t="s">
         <v>782</v>
-      </c>
-      <c r="G135" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.3">
@@ -5478,7 +5487,7 @@
         <v>227</v>
       </c>
       <c r="G137" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.3">
@@ -5515,7 +5524,7 @@
         <v>229</v>
       </c>
       <c r="G139" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.3">
@@ -5569,7 +5578,7 @@
         <v>231</v>
       </c>
       <c r="G142" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.3">
@@ -5623,7 +5632,7 @@
         <v>234</v>
       </c>
       <c r="G145" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.3">
@@ -5643,7 +5652,7 @@
         <v>235</v>
       </c>
       <c r="G146" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.3">
@@ -5663,7 +5672,7 @@
         <v>236</v>
       </c>
       <c r="G147" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.3">
@@ -5717,7 +5726,7 @@
         <v>239</v>
       </c>
       <c r="G150" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.3">
@@ -5737,7 +5746,7 @@
         <v>240</v>
       </c>
       <c r="G151" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.3">
@@ -5757,7 +5766,7 @@
         <v>241</v>
       </c>
       <c r="G152" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.3">
@@ -5777,7 +5786,7 @@
         <v>242</v>
       </c>
       <c r="G153" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.3">
@@ -5814,7 +5823,7 @@
         <v>244</v>
       </c>
       <c r="G155" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.3">
@@ -5885,7 +5894,7 @@
         <v>248</v>
       </c>
       <c r="G159" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.3">
@@ -5939,7 +5948,7 @@
         <v>251</v>
       </c>
       <c r="G162" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.3">
@@ -5993,7 +6002,7 @@
         <v>254</v>
       </c>
       <c r="G165" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.3">
@@ -6013,7 +6022,7 @@
         <v>255</v>
       </c>
       <c r="G166" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.3">
@@ -6050,7 +6059,7 @@
         <v>257</v>
       </c>
       <c r="G168" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.3">
@@ -6070,7 +6079,7 @@
         <v>258</v>
       </c>
       <c r="G169" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.3">
@@ -6141,7 +6150,7 @@
         <v>262</v>
       </c>
       <c r="G173" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.3">
@@ -6161,7 +6170,7 @@
         <v>263</v>
       </c>
       <c r="G174" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.3">
@@ -6198,7 +6207,7 @@
         <v>265</v>
       </c>
       <c r="G176" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.3">
@@ -6218,7 +6227,7 @@
         <v>266</v>
       </c>
       <c r="G177" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.3">
@@ -6272,7 +6281,7 @@
         <v>269</v>
       </c>
       <c r="G180" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.3">
@@ -6309,7 +6318,7 @@
         <v>271</v>
       </c>
       <c r="G182" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.3">
@@ -6380,7 +6389,7 @@
         <v>275</v>
       </c>
       <c r="G186" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.3">
@@ -6434,7 +6443,7 @@
         <v>277</v>
       </c>
       <c r="G189" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.3">
@@ -6488,7 +6497,7 @@
         <v>280</v>
       </c>
       <c r="G192" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.3">
@@ -6576,7 +6585,7 @@
         <v>285</v>
       </c>
       <c r="G197" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.3">
@@ -6698,7 +6707,7 @@
         <v>291</v>
       </c>
       <c r="G204" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.3">
@@ -6718,7 +6727,7 @@
         <v>292</v>
       </c>
       <c r="G205" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.3">
@@ -6755,7 +6764,7 @@
         <v>294</v>
       </c>
       <c r="G207" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.3">
@@ -6775,7 +6784,7 @@
         <v>295</v>
       </c>
       <c r="G208" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.3">
@@ -6826,10 +6835,10 @@
         <v>6</v>
       </c>
       <c r="F211" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G211" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.3">
@@ -6849,7 +6858,7 @@
         <v>298</v>
       </c>
       <c r="G212" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.3">
@@ -6869,7 +6878,7 @@
         <v>299</v>
       </c>
       <c r="G213" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.3">
@@ -6889,7 +6898,7 @@
         <v>300</v>
       </c>
       <c r="G214" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.3">
@@ -6940,7 +6949,7 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G217" t="s">
         <v>679</v>
@@ -6997,7 +7006,7 @@
         <v>305</v>
       </c>
       <c r="G220" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.3">
@@ -7017,7 +7026,7 @@
         <v>306</v>
       </c>
       <c r="G221" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.3">
@@ -7037,7 +7046,7 @@
         <v>307</v>
       </c>
       <c r="G222" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.3">
@@ -7091,7 +7100,7 @@
         <v>309</v>
       </c>
       <c r="G225" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.3">
@@ -7145,7 +7154,7 @@
         <v>312</v>
       </c>
       <c r="G228" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.3">
@@ -7219,7 +7228,7 @@
         <v>316</v>
       </c>
       <c r="G232" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.3">
@@ -7324,7 +7333,7 @@
         <v>321</v>
       </c>
       <c r="G238" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.3">
@@ -7344,7 +7353,7 @@
         <v>322</v>
       </c>
       <c r="G239" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.3">
@@ -7381,7 +7390,7 @@
         <v>324</v>
       </c>
       <c r="G241" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.3">
@@ -7452,7 +7461,7 @@
         <v>328</v>
       </c>
       <c r="G245" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.3">
@@ -7472,7 +7481,7 @@
         <v>329</v>
       </c>
       <c r="G246" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.3">
@@ -7577,7 +7586,7 @@
         <v>334</v>
       </c>
       <c r="G252" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.3">
@@ -7631,7 +7640,7 @@
         <v>337</v>
       </c>
       <c r="G255" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.3">
@@ -7668,7 +7677,7 @@
         <v>339</v>
       </c>
       <c r="G257" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
@@ -7705,7 +7714,7 @@
         <v>341</v>
       </c>
       <c r="G259" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
@@ -7759,7 +7768,7 @@
         <v>343</v>
       </c>
       <c r="G262" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
@@ -7898,7 +7907,7 @@
         <v>350</v>
       </c>
       <c r="G270" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
@@ -7935,7 +7944,7 @@
         <v>352</v>
       </c>
       <c r="G272" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.3">
@@ -7989,7 +7998,7 @@
         <v>355</v>
       </c>
       <c r="G275" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.3">
@@ -8009,7 +8018,7 @@
         <v>356</v>
       </c>
       <c r="G276" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.3">
@@ -8046,7 +8055,7 @@
         <v>358</v>
       </c>
       <c r="G278" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.3">
@@ -8100,7 +8109,7 @@
         <v>361</v>
       </c>
       <c r="G281" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.3">
@@ -8236,10 +8245,10 @@
         <v>4</v>
       </c>
       <c r="F289" t="s">
+        <v>809</v>
+      </c>
+      <c r="G289" t="s">
         <v>810</v>
-      </c>
-      <c r="G289" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.3">
@@ -8293,7 +8302,7 @@
         <v>372</v>
       </c>
       <c r="G292" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.3">
@@ -8313,7 +8322,7 @@
         <v>372</v>
       </c>
       <c r="G293" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.3">
@@ -8350,7 +8359,7 @@
         <v>374</v>
       </c>
       <c r="G295" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.3">
@@ -8404,7 +8413,7 @@
         <v>377</v>
       </c>
       <c r="G298" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.3">
@@ -8424,7 +8433,7 @@
         <v>378</v>
       </c>
       <c r="G299" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.3">
@@ -8495,7 +8504,7 @@
         <v>382</v>
       </c>
       <c r="G303" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.3">
@@ -8515,7 +8524,7 @@
         <v>383</v>
       </c>
       <c r="G304" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.3">
@@ -8535,7 +8544,7 @@
         <v>384</v>
       </c>
       <c r="G305" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.3">
@@ -8589,7 +8598,7 @@
         <v>386</v>
       </c>
       <c r="G308" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.3">
@@ -8609,7 +8618,7 @@
         <v>387</v>
       </c>
       <c r="G309" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.3">
@@ -8629,7 +8638,7 @@
         <v>388</v>
       </c>
       <c r="G310" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.3">
@@ -8734,7 +8743,7 @@
         <v>393</v>
       </c>
       <c r="G316" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.3">
@@ -8771,7 +8780,7 @@
         <v>395</v>
       </c>
       <c r="G318" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.3">
@@ -8791,7 +8800,7 @@
         <v>396</v>
       </c>
       <c r="G319" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.3">
@@ -8828,7 +8837,7 @@
         <v>398</v>
       </c>
       <c r="G321" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.3">
@@ -8882,7 +8891,7 @@
         <v>400</v>
       </c>
       <c r="G324" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.3">
@@ -8919,7 +8928,7 @@
         <v>401</v>
       </c>
       <c r="G326" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.3">
@@ -8939,7 +8948,7 @@
         <v>402</v>
       </c>
       <c r="G327" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.3">
@@ -8959,7 +8968,7 @@
         <v>403</v>
       </c>
       <c r="G328" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.3">
@@ -9015,7 +9024,7 @@
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -9030,12 +9039,12 @@
         <v>407</v>
       </c>
       <c r="G332" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -9052,7 +9061,7 @@
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
@@ -9069,7 +9078,7 @@
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C335" t="s">
         <v>52</v>
@@ -9084,12 +9093,12 @@
         <v>409</v>
       </c>
       <c r="G335" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C336" t="s">
         <v>62</v>
@@ -9106,7 +9115,7 @@
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C337" t="s">
         <v>61</v>
@@ -9123,7 +9132,7 @@
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C338" t="s">
         <v>60</v>
@@ -9138,12 +9147,12 @@
         <v>412</v>
       </c>
       <c r="G338" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C339" t="s">
         <v>52</v>
@@ -9158,12 +9167,12 @@
         <v>413</v>
       </c>
       <c r="G339" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C340" t="s">
         <v>49</v>
@@ -9178,12 +9187,12 @@
         <v>414</v>
       </c>
       <c r="G340" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C341" t="s">
         <v>50</v>
@@ -9200,7 +9209,7 @@
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C342" t="s">
         <v>44</v>
@@ -9217,7 +9226,7 @@
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C343" t="s">
         <v>53</v>
@@ -9232,12 +9241,12 @@
         <v>417</v>
       </c>
       <c r="G343" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C344" t="s">
         <v>46</v>
@@ -9252,12 +9261,12 @@
         <v>418</v>
       </c>
       <c r="G344" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C345" t="s">
         <v>59</v>
@@ -9274,7 +9283,7 @@
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C346" t="s">
         <v>52</v>
@@ -9291,7 +9300,7 @@
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C347" t="s">
         <v>49</v>
@@ -9308,7 +9317,7 @@
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C348" t="s">
         <v>61</v>
@@ -9323,12 +9332,12 @@
         <v>422</v>
       </c>
       <c r="G348" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C349" t="s">
         <v>40</v>
@@ -9343,12 +9352,12 @@
         <v>423</v>
       </c>
       <c r="G349" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C350" t="s">
         <v>44</v>
@@ -9363,12 +9372,12 @@
         <v>424</v>
       </c>
       <c r="G350" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C351" t="s">
         <v>31</v>
@@ -9385,7 +9394,7 @@
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C352" t="s">
         <v>4</v>
@@ -9400,12 +9409,12 @@
         <v>426</v>
       </c>
       <c r="G352" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C353" t="s">
         <v>42</v>
@@ -9422,7 +9431,7 @@
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C354" t="s">
         <v>42</v>
@@ -9437,12 +9446,12 @@
         <v>428</v>
       </c>
       <c r="G354" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C355" t="s">
         <v>58</v>
@@ -9457,12 +9466,12 @@
         <v>429</v>
       </c>
       <c r="G355" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C356" t="s">
         <v>58</v>
@@ -9479,7 +9488,7 @@
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C357" t="s">
         <v>57</v>
@@ -9494,12 +9503,12 @@
         <v>431</v>
       </c>
       <c r="G357" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C358" t="s">
         <v>59</v>
@@ -9516,7 +9525,7 @@
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C359" t="s">
         <v>52</v>
@@ -9531,12 +9540,12 @@
         <v>433</v>
       </c>
       <c r="G359" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C360" t="s">
         <v>62</v>
@@ -9553,7 +9562,7 @@
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C361" t="s">
         <v>62</v>
@@ -9570,7 +9579,7 @@
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C362" t="s">
         <v>26</v>
@@ -9585,12 +9594,12 @@
         <v>436</v>
       </c>
       <c r="G362" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C363" t="s">
         <v>57</v>
@@ -9605,12 +9614,12 @@
         <v>437</v>
       </c>
       <c r="G363" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C364" t="s">
         <v>51</v>
@@ -9627,7 +9636,7 @@
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C365" t="s">
         <v>50</v>
@@ -9644,7 +9653,7 @@
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C366" t="s">
         <v>62</v>
@@ -9659,12 +9668,12 @@
         <v>440</v>
       </c>
       <c r="G366" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C367" t="s">
         <v>3</v>
@@ -9681,7 +9690,7 @@
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C368" t="s">
         <v>4</v>
@@ -9698,7 +9707,7 @@
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C369" t="s">
         <v>4</v>
@@ -9715,7 +9724,7 @@
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C370" t="s">
         <v>22</v>
@@ -9732,7 +9741,7 @@
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C371" t="s">
         <v>30</v>
@@ -9749,7 +9758,7 @@
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C372" t="s">
         <v>26</v>
@@ -9766,7 +9775,7 @@
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C373" t="s">
         <v>2</v>
@@ -9781,12 +9790,12 @@
         <v>447</v>
       </c>
       <c r="G373" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -9801,12 +9810,12 @@
         <v>448</v>
       </c>
       <c r="G374" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C375" t="s">
         <v>18</v>
@@ -9823,7 +9832,7 @@
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C376" t="s">
         <v>2</v>
@@ -9840,7 +9849,7 @@
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
@@ -9855,12 +9864,12 @@
         <v>450</v>
       </c>
       <c r="G377" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C378" t="s">
         <v>2</v>
@@ -9875,12 +9884,12 @@
         <v>451</v>
       </c>
       <c r="G378" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C379" t="s">
         <v>3</v>
@@ -9897,7 +9906,7 @@
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
@@ -9914,7 +9923,7 @@
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C381" t="s">
         <v>18</v>
@@ -9931,7 +9940,7 @@
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
@@ -9946,12 +9955,12 @@
         <v>454</v>
       </c>
       <c r="G382" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C383" t="s">
         <v>17</v>
@@ -9966,12 +9975,12 @@
         <v>455</v>
       </c>
       <c r="G383" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C384" t="s">
         <v>22</v>
@@ -9988,7 +9997,7 @@
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C385" t="s">
         <v>7</v>
@@ -10005,7 +10014,7 @@
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C386" t="s">
         <v>17</v>
@@ -10022,7 +10031,7 @@
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C387" t="s">
         <v>51</v>
@@ -10037,12 +10046,12 @@
         <v>458</v>
       </c>
       <c r="G387" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C388" t="s">
         <v>10</v>
@@ -10059,7 +10068,7 @@
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C389" t="s">
         <v>10</v>
@@ -10076,7 +10085,7 @@
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C390" t="s">
         <v>31</v>
@@ -10093,7 +10102,7 @@
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C391" t="s">
         <v>26</v>
@@ -10110,7 +10119,7 @@
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C392" t="s">
         <v>37</v>
@@ -10127,7 +10136,7 @@
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C393" t="s">
         <v>40</v>
@@ -10144,7 +10153,7 @@
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C394" t="s">
         <v>40</v>
@@ -10159,12 +10168,12 @@
         <v>464</v>
       </c>
       <c r="G394" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C395" t="s">
         <v>31</v>
@@ -10181,7 +10190,7 @@
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C396" t="s">
         <v>33</v>
@@ -10198,7 +10207,7 @@
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C397" t="s">
         <v>33</v>
@@ -10213,12 +10222,12 @@
         <v>466</v>
       </c>
       <c r="G397" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C398" t="s">
         <v>36</v>
@@ -10233,12 +10242,12 @@
         <v>467</v>
       </c>
       <c r="G398" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C399" t="s">
         <v>33</v>
@@ -10255,7 +10264,7 @@
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C400" t="s">
         <v>24</v>
@@ -10270,12 +10279,12 @@
         <v>469</v>
       </c>
       <c r="G400" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C401" t="s">
         <v>39</v>
@@ -10290,12 +10299,12 @@
         <v>470</v>
       </c>
       <c r="G401" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C402" t="s">
         <v>29</v>
@@ -10312,7 +10321,7 @@
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -10329,7 +10338,7 @@
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C404" t="s">
         <v>40</v>
@@ -10346,7 +10355,7 @@
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C405" t="s">
         <v>40</v>
@@ -10363,7 +10372,7 @@
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C406" t="s">
         <v>40</v>
@@ -10380,7 +10389,7 @@
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C407" t="s">
         <v>4</v>
@@ -10395,12 +10404,12 @@
         <v>476</v>
       </c>
       <c r="G407" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C408" t="s">
         <v>40</v>
@@ -10415,12 +10424,12 @@
         <v>477</v>
       </c>
       <c r="G408" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C409" t="s">
         <v>17</v>
@@ -10437,7 +10446,7 @@
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C410" t="s">
         <v>9</v>
@@ -10454,7 +10463,7 @@
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C411" t="s">
         <v>20</v>
@@ -10469,12 +10478,12 @@
         <v>480</v>
       </c>
       <c r="G411" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C412" t="s">
         <v>56</v>
@@ -10489,12 +10498,12 @@
         <v>481</v>
       </c>
       <c r="G412" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C413" t="s">
         <v>61</v>
@@ -10511,7 +10520,7 @@
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C414" t="s">
         <v>33</v>
@@ -10528,7 +10537,7 @@
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C415" t="s">
         <v>33</v>
@@ -10543,7 +10552,7 @@
         <v>484</v>
       </c>
       <c r="G415" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.3">
@@ -10597,7 +10606,7 @@
         <v>488</v>
       </c>
       <c r="G418" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.3">
@@ -10617,7 +10626,7 @@
         <v>489</v>
       </c>
       <c r="G419" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.3">
@@ -10637,7 +10646,7 @@
         <v>490</v>
       </c>
       <c r="G420" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.3">
@@ -10657,7 +10666,7 @@
         <v>491</v>
       </c>
       <c r="G421" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.3">
@@ -10694,7 +10703,7 @@
         <v>493</v>
       </c>
       <c r="G423" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.3">
@@ -10731,7 +10740,7 @@
         <v>494</v>
       </c>
       <c r="G425" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.3">
@@ -10768,7 +10777,7 @@
         <v>495</v>
       </c>
       <c r="G427" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.3">
@@ -10788,7 +10797,7 @@
         <v>496</v>
       </c>
       <c r="G428" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.3">
@@ -10808,7 +10817,7 @@
         <v>497</v>
       </c>
       <c r="G429" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.3">
@@ -10879,7 +10888,7 @@
         <v>500</v>
       </c>
       <c r="G433" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="434" spans="2:7" x14ac:dyDescent="0.3">
@@ -10916,7 +10925,7 @@
         <v>502</v>
       </c>
       <c r="G435" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.3">
@@ -10936,7 +10945,7 @@
         <v>503</v>
       </c>
       <c r="G436" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.3">
@@ -10990,7 +10999,7 @@
         <v>506</v>
       </c>
       <c r="G439" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.3">
@@ -11010,7 +11019,7 @@
         <v>507</v>
       </c>
       <c r="G440" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.3">
@@ -11078,10 +11087,10 @@
         <v>14</v>
       </c>
       <c r="F444" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G444" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.3">
@@ -11101,7 +11110,7 @@
         <v>511</v>
       </c>
       <c r="G445" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.3">
@@ -11172,7 +11181,7 @@
         <v>515</v>
       </c>
       <c r="G449" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.3">
@@ -11192,7 +11201,7 @@
         <v>516</v>
       </c>
       <c r="G450" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.3">
@@ -11297,7 +11306,7 @@
         <v>522</v>
       </c>
       <c r="G456" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.3">
@@ -11334,7 +11343,7 @@
         <v>524</v>
       </c>
       <c r="G458" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.3">
@@ -11422,7 +11431,7 @@
         <v>530</v>
       </c>
       <c r="G463" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="464" spans="2:7" x14ac:dyDescent="0.3">
@@ -11459,7 +11468,7 @@
         <v>532</v>
       </c>
       <c r="G465" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.3">
@@ -11581,7 +11590,7 @@
         <v>537</v>
       </c>
       <c r="G472" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.3">
@@ -11635,7 +11644,7 @@
         <v>539</v>
       </c>
       <c r="G475" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="476" spans="2:7" x14ac:dyDescent="0.3">
@@ -11655,7 +11664,7 @@
         <v>540</v>
       </c>
       <c r="G476" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.3">
@@ -11709,7 +11718,7 @@
         <v>543</v>
       </c>
       <c r="G479" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="480" spans="2:7" x14ac:dyDescent="0.3">
@@ -11729,7 +11738,7 @@
         <v>544</v>
       </c>
       <c r="G480" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.3">
@@ -11766,7 +11775,7 @@
         <v>546</v>
       </c>
       <c r="G482" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="483" spans="2:7" x14ac:dyDescent="0.3">
@@ -11803,7 +11812,7 @@
         <v>548</v>
       </c>
       <c r="G484" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="485" spans="2:7" x14ac:dyDescent="0.3">
@@ -11823,7 +11832,7 @@
         <v>549</v>
       </c>
       <c r="G485" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="486" spans="2:7" x14ac:dyDescent="0.3">
@@ -11843,7 +11852,7 @@
         <v>550</v>
       </c>
       <c r="G486" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.3">
@@ -11863,7 +11872,7 @@
         <v>551</v>
       </c>
       <c r="G487" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="488" spans="2:7" x14ac:dyDescent="0.3">
@@ -11951,7 +11960,7 @@
         <v>555</v>
       </c>
       <c r="G492" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="493" spans="2:7" x14ac:dyDescent="0.3">
@@ -12005,7 +12014,7 @@
         <v>558</v>
       </c>
       <c r="G495" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="496" spans="2:7" x14ac:dyDescent="0.3">
@@ -12059,7 +12068,7 @@
         <v>559</v>
       </c>
       <c r="G498" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="499" spans="2:7" x14ac:dyDescent="0.3">
@@ -12164,7 +12173,7 @@
         <v>561</v>
       </c>
       <c r="G504" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="505" spans="2:7" x14ac:dyDescent="0.3">
@@ -12218,7 +12227,7 @@
         <v>564</v>
       </c>
       <c r="G507" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="508" spans="2:7" x14ac:dyDescent="0.3">
@@ -12238,7 +12247,7 @@
         <v>565</v>
       </c>
       <c r="G508" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="509" spans="2:7" x14ac:dyDescent="0.3">
@@ -12275,7 +12284,7 @@
         <v>567</v>
       </c>
       <c r="G510" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="511" spans="2:7" x14ac:dyDescent="0.3">
@@ -12295,7 +12304,7 @@
         <v>568</v>
       </c>
       <c r="G511" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="512" spans="2:7" x14ac:dyDescent="0.3">
@@ -12332,7 +12341,7 @@
         <v>570</v>
       </c>
       <c r="G513" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="514" spans="2:7" x14ac:dyDescent="0.3">
@@ -12349,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="F514" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="515" spans="2:7" x14ac:dyDescent="0.3">
@@ -12420,7 +12429,7 @@
         <v>573</v>
       </c>
       <c r="G518" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="519" spans="2:7" x14ac:dyDescent="0.3">
@@ -12457,7 +12466,7 @@
         <v>574</v>
       </c>
       <c r="G520" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="521" spans="2:7" x14ac:dyDescent="0.3">
@@ -12528,7 +12537,7 @@
         <v>577</v>
       </c>
       <c r="G524" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="525" spans="2:7" x14ac:dyDescent="0.3">
@@ -12548,7 +12557,7 @@
         <v>577</v>
       </c>
       <c r="G525" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="526" spans="2:7" x14ac:dyDescent="0.3">
@@ -12568,7 +12577,7 @@
         <v>578</v>
       </c>
       <c r="G526" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="527" spans="2:7" x14ac:dyDescent="0.3">
@@ -12605,7 +12614,7 @@
         <v>580</v>
       </c>
       <c r="G528" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="529" spans="2:7" x14ac:dyDescent="0.3">
@@ -12625,7 +12634,7 @@
         <v>581</v>
       </c>
       <c r="G529" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="530" spans="2:7" x14ac:dyDescent="0.3">
@@ -12679,7 +12688,7 @@
         <v>583</v>
       </c>
       <c r="G532" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="533" spans="2:7" x14ac:dyDescent="0.3">
@@ -12699,7 +12708,7 @@
         <v>584</v>
       </c>
       <c r="G533" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="534" spans="2:7" x14ac:dyDescent="0.3">
@@ -12753,7 +12762,7 @@
         <v>585</v>
       </c>
       <c r="G536" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="537" spans="2:7" x14ac:dyDescent="0.3">
@@ -12807,7 +12816,7 @@
         <v>587</v>
       </c>
       <c r="G539" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="540" spans="2:7" x14ac:dyDescent="0.3">
@@ -12844,7 +12853,7 @@
         <v>589</v>
       </c>
       <c r="G541" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="542" spans="2:7" x14ac:dyDescent="0.3">
@@ -12881,7 +12890,7 @@
         <v>590</v>
       </c>
       <c r="G543" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="544" spans="2:7" x14ac:dyDescent="0.3">
@@ -12986,7 +12995,7 @@
         <v>594</v>
       </c>
       <c r="G549" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="550" spans="2:7" x14ac:dyDescent="0.3">
@@ -13006,7 +13015,7 @@
         <v>595</v>
       </c>
       <c r="G550" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="551" spans="2:7" x14ac:dyDescent="0.3">
@@ -13060,7 +13069,7 @@
         <v>598</v>
       </c>
       <c r="G553" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="554" spans="2:7" x14ac:dyDescent="0.3">
@@ -13097,7 +13106,7 @@
         <v>600</v>
       </c>
       <c r="G555" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="556" spans="2:7" x14ac:dyDescent="0.3">
@@ -13117,7 +13126,7 @@
         <v>600</v>
       </c>
       <c r="G556" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="557" spans="2:7" x14ac:dyDescent="0.3">
@@ -13205,7 +13214,7 @@
         <v>604</v>
       </c>
       <c r="G561" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="562" spans="2:7" x14ac:dyDescent="0.3">
@@ -13259,7 +13268,7 @@
         <v>607</v>
       </c>
       <c r="G564" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="565" spans="2:7" x14ac:dyDescent="0.3">
@@ -13330,7 +13339,7 @@
         <v>611</v>
       </c>
       <c r="G568" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="569" spans="2:7" x14ac:dyDescent="0.3">
@@ -13418,7 +13427,7 @@
         <v>615</v>
       </c>
       <c r="G573" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="574" spans="2:7" x14ac:dyDescent="0.3">
@@ -13438,7 +13447,7 @@
         <v>616</v>
       </c>
       <c r="G574" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="575" spans="2:7" x14ac:dyDescent="0.3">
@@ -13475,7 +13484,7 @@
         <v>618</v>
       </c>
       <c r="G576" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="577" spans="2:7" x14ac:dyDescent="0.3">
@@ -13495,7 +13504,7 @@
         <v>619</v>
       </c>
       <c r="G577" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="578" spans="2:7" x14ac:dyDescent="0.3">
@@ -13515,7 +13524,7 @@
         <v>620</v>
       </c>
       <c r="G578" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="579" spans="2:7" x14ac:dyDescent="0.3">
@@ -13569,7 +13578,7 @@
         <v>623</v>
       </c>
       <c r="G581" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="582" spans="2:7" x14ac:dyDescent="0.3">
@@ -13589,7 +13598,7 @@
         <v>624</v>
       </c>
       <c r="G582" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="583" spans="2:7" x14ac:dyDescent="0.3">
@@ -13626,7 +13635,7 @@
         <v>626</v>
       </c>
       <c r="G584" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="585" spans="2:7" x14ac:dyDescent="0.3">
@@ -13680,7 +13689,7 @@
         <v>628</v>
       </c>
       <c r="G587" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="588" spans="2:7" x14ac:dyDescent="0.3">
@@ -13768,7 +13777,7 @@
         <v>632</v>
       </c>
       <c r="G592" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="593" spans="2:7" x14ac:dyDescent="0.3">
@@ -13805,7 +13814,7 @@
         <v>633</v>
       </c>
       <c r="G594" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="595" spans="2:7" x14ac:dyDescent="0.3">
@@ -13842,7 +13851,7 @@
         <v>635</v>
       </c>
       <c r="G596" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="597" spans="2:7" x14ac:dyDescent="0.3">
@@ -13879,7 +13888,7 @@
         <v>636</v>
       </c>
       <c r="G598" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="599" spans="2:7" x14ac:dyDescent="0.3">
@@ -13916,7 +13925,7 @@
         <v>638</v>
       </c>
       <c r="G600" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="601" spans="2:7" x14ac:dyDescent="0.3">
@@ -13953,7 +13962,7 @@
         <v>138</v>
       </c>
       <c r="G602" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="603" spans="2:7" x14ac:dyDescent="0.3">
@@ -14024,7 +14033,7 @@
         <v>140</v>
       </c>
       <c r="G606" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="607" spans="2:7" x14ac:dyDescent="0.3">
@@ -14061,7 +14070,7 @@
         <v>141</v>
       </c>
       <c r="G608" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="609" spans="2:7" x14ac:dyDescent="0.3">
@@ -14081,7 +14090,7 @@
         <v>142</v>
       </c>
       <c r="G609" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="610" spans="2:7" x14ac:dyDescent="0.3">
@@ -14118,7 +14127,7 @@
         <v>144</v>
       </c>
       <c r="G611" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="612" spans="2:7" x14ac:dyDescent="0.3">
@@ -14155,7 +14164,7 @@
         <v>146</v>
       </c>
       <c r="G613" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="614" spans="2:7" x14ac:dyDescent="0.3">
@@ -14192,7 +14201,7 @@
         <v>148</v>
       </c>
       <c r="G615" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="616" spans="2:7" x14ac:dyDescent="0.3">
@@ -14314,7 +14323,7 @@
         <v>154</v>
       </c>
       <c r="G622" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="623" spans="2:7" x14ac:dyDescent="0.3">
@@ -14334,7 +14343,7 @@
         <v>155</v>
       </c>
       <c r="G623" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="624" spans="2:7" x14ac:dyDescent="0.3">
@@ -14354,7 +14363,7 @@
         <v>156</v>
       </c>
       <c r="G624" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="625" spans="2:7" x14ac:dyDescent="0.3">
@@ -14374,7 +14383,7 @@
         <v>156</v>
       </c>
       <c r="G625" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="626" spans="2:7" x14ac:dyDescent="0.3">
@@ -14411,7 +14420,7 @@
         <v>157</v>
       </c>
       <c r="G627" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="628" spans="2:7" x14ac:dyDescent="0.3">
@@ -14431,7 +14440,7 @@
         <v>158</v>
       </c>
       <c r="G628" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="629" spans="2:7" x14ac:dyDescent="0.3">
@@ -14485,7 +14494,7 @@
         <v>161</v>
       </c>
       <c r="G631" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="632" spans="2:7" x14ac:dyDescent="0.3">
@@ -14522,7 +14531,7 @@
         <v>163</v>
       </c>
       <c r="G633" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="634" spans="2:7" x14ac:dyDescent="0.3">
@@ -14661,7 +14670,7 @@
         <v>169</v>
       </c>
       <c r="G641" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="642" spans="2:7" x14ac:dyDescent="0.3">
@@ -14681,7 +14690,7 @@
         <v>170</v>
       </c>
       <c r="G642" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="643" spans="2:7" x14ac:dyDescent="0.3">
@@ -18029,59 +18038,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB95E44-9F4F-4756-BE84-AC6790AAC1E1}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>726</v>
       </c>
+      <c r="B1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D1" t="s">
+        <v>835</v>
+      </c>
       <c r="E1" t="s">
-        <v>838</v>
+        <v>731</v>
       </c>
       <c r="F1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H1" t="s">
+        <v>734</v>
+      </c>
+      <c r="I1" t="s">
+        <v>735</v>
+      </c>
+      <c r="J1" t="s">
+        <v>736</v>
+      </c>
+      <c r="K1" t="s">
+        <v>737</v>
+      </c>
+      <c r="L1" t="s">
+        <v>738</v>
+      </c>
+      <c r="M1" t="s">
+        <v>739</v>
+      </c>
+      <c r="N1" t="s">
+        <v>740</v>
+      </c>
+      <c r="O1" t="s">
+        <v>836</v>
+      </c>
+      <c r="P1" t="s">
         <v>837</v>
-      </c>
-      <c r="G1" t="s">
-        <v>732</v>
-      </c>
-      <c r="H1" t="s">
-        <v>733</v>
-      </c>
-      <c r="I1" t="s">
-        <v>734</v>
-      </c>
-      <c r="J1" t="s">
-        <v>735</v>
-      </c>
-      <c r="K1" t="s">
-        <v>736</v>
-      </c>
-      <c r="L1" t="s">
-        <v>737</v>
-      </c>
-      <c r="M1" t="s">
-        <v>738</v>
-      </c>
-      <c r="N1" t="s">
-        <v>739</v>
-      </c>
-      <c r="O1" t="s">
-        <v>740</v>
-      </c>
-      <c r="P1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -18089,32 +18107,29 @@
         <v>727</v>
       </c>
       <c r="B2" t="s">
-        <v>834</v>
-      </c>
-      <c r="C2" t="s">
-        <v>835</v>
-      </c>
-      <c r="D2" t="s">
-        <v>836</v>
-      </c>
-      <c r="E2" t="s">
-        <v>728</v>
+        <v>651</v>
+      </c>
+      <c r="P2">
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B3" t="s">
         <v>651</v>
       </c>
-      <c r="E3">
-        <v>261</v>
+      <c r="C3" t="s">
+        <v>660</v>
+      </c>
+      <c r="P3">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B4" t="s">
         <v>651</v>
@@ -18122,13 +18137,49 @@
       <c r="C4" t="s">
         <v>660</v>
       </c>
+      <c r="D4" t="s">
+        <v>710</v>
+      </c>
       <c r="E4">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B5" t="s">
         <v>651</v>
@@ -18137,48 +18188,48 @@
         <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E5" t="s">
-        <v>729</v>
+        <v>717</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B6" t="s">
         <v>651</v>
@@ -18187,48 +18238,45 @@
         <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
-      </c>
-      <c r="E6" t="s">
-        <v>729</v>
+        <v>718</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B7" t="s">
         <v>651</v>
@@ -18237,28 +18285,31 @@
         <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>718</v>
+        <v>716</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -18267,65 +18318,29 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B8" t="s">
         <v>651</v>
       </c>
       <c r="C8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D8" t="s">
-        <v>716</v>
-      </c>
-      <c r="E8" t="s">
-        <v>729</v>
-      </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B9" t="s">
         <v>651</v>
@@ -18333,13 +18348,49 @@
       <c r="C9" t="s">
         <v>666</v>
       </c>
+      <c r="D9" t="s">
+        <v>715</v>
+      </c>
       <c r="E9">
-        <v>47</v>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B10" t="s">
         <v>651</v>
@@ -18348,48 +18399,48 @@
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>715</v>
-      </c>
-      <c r="E10" t="s">
-        <v>729</v>
+        <v>722</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
       </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
         <v>14</v>
       </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
+      <c r="P10" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B11" t="s">
         <v>651</v>
@@ -18398,98 +18449,62 @@
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>722</v>
-      </c>
-      <c r="E11" t="s">
-        <v>729</v>
+        <v>723</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B12" t="s">
         <v>651</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
-      </c>
-      <c r="D12" t="s">
-        <v>723</v>
-      </c>
-      <c r="E12" t="s">
-        <v>729</v>
-      </c>
-      <c r="F12">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>12</v>
+        <v>657</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B13" t="s">
         <v>651</v>
@@ -18497,63 +18512,63 @@
       <c r="C13" t="s">
         <v>657</v>
       </c>
+      <c r="D13" t="s">
+        <v>721</v>
+      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B14" t="s">
         <v>651</v>
       </c>
       <c r="C14" t="s">
-        <v>657</v>
-      </c>
-      <c r="D14" t="s">
-        <v>721</v>
-      </c>
-      <c r="E14" t="s">
-        <v>729</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B15" t="s">
         <v>651</v>
@@ -18561,13 +18576,49 @@
       <c r="C15" t="s">
         <v>656</v>
       </c>
+      <c r="D15" t="s">
+        <v>709</v>
+      </c>
       <c r="E15">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B16" t="s">
         <v>651</v>
@@ -18576,48 +18627,48 @@
         <v>656</v>
       </c>
       <c r="D16" t="s">
-        <v>709</v>
-      </c>
-      <c r="E16" t="s">
-        <v>729</v>
+        <v>699</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B17" t="s">
         <v>651</v>
@@ -18626,48 +18677,48 @@
         <v>656</v>
       </c>
       <c r="D17" t="s">
-        <v>699</v>
-      </c>
-      <c r="E17" t="s">
-        <v>729</v>
+        <v>720</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B18" t="s">
         <v>651</v>
@@ -18676,98 +18727,62 @@
         <v>656</v>
       </c>
       <c r="D18" t="s">
-        <v>720</v>
-      </c>
-      <c r="E18" t="s">
-        <v>729</v>
+        <v>719</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="P18" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B19" t="s">
         <v>651</v>
       </c>
       <c r="C19" t="s">
-        <v>656</v>
-      </c>
-      <c r="D19" t="s">
-        <v>719</v>
-      </c>
-      <c r="E19" t="s">
-        <v>729</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
+        <v>658</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B20" t="s">
         <v>651</v>
@@ -18775,13 +18790,49 @@
       <c r="C20" t="s">
         <v>658</v>
       </c>
+      <c r="D20" t="s">
+        <v>711</v>
+      </c>
       <c r="E20">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B21" t="s">
         <v>651</v>
@@ -18790,98 +18841,62 @@
         <v>658</v>
       </c>
       <c r="D21" t="s">
-        <v>711</v>
-      </c>
-      <c r="E21" t="s">
-        <v>729</v>
+        <v>708</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="P21" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B22" t="s">
         <v>651</v>
       </c>
       <c r="C22" t="s">
-        <v>658</v>
-      </c>
-      <c r="D22" t="s">
-        <v>708</v>
-      </c>
-      <c r="E22" t="s">
-        <v>729</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
+        <v>661</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B23" t="s">
         <v>651</v>
@@ -18889,60 +18904,60 @@
       <c r="C23" t="s">
         <v>661</v>
       </c>
+      <c r="D23" t="s">
+        <v>707</v>
+      </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B24" t="s">
         <v>651</v>
       </c>
       <c r="C24" t="s">
-        <v>661</v>
-      </c>
-      <c r="D24" t="s">
-        <v>707</v>
-      </c>
-      <c r="F24">
-        <v>7</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
+        <v>653</v>
+      </c>
+      <c r="P24" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" t="s">
         <v>651</v>
@@ -18950,13 +18965,49 @@
       <c r="C25" t="s">
         <v>653</v>
       </c>
-      <c r="E25" t="s">
-        <v>729</v>
+      <c r="D25" t="s">
+        <v>712</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B26" t="s">
         <v>651</v>
@@ -18965,25 +19016,25 @@
         <v>653</v>
       </c>
       <c r="D26" t="s">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="E26">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -18992,21 +19043,21 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="P26" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B27" t="s">
         <v>651</v>
@@ -19015,48 +19066,48 @@
         <v>653</v>
       </c>
       <c r="D27" t="s">
-        <v>665</v>
-      </c>
-      <c r="E27" t="s">
-        <v>729</v>
+        <v>663</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B28" t="s">
         <v>651</v>
@@ -19065,98 +19116,62 @@
         <v>653</v>
       </c>
       <c r="D28" t="s">
-        <v>663</v>
-      </c>
-      <c r="E28" t="s">
-        <v>729</v>
+        <v>664</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B29" t="s">
         <v>651</v>
       </c>
       <c r="C29" t="s">
-        <v>653</v>
-      </c>
-      <c r="D29" t="s">
-        <v>664</v>
-      </c>
-      <c r="E29" t="s">
-        <v>729</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B30" t="s">
         <v>651</v>
@@ -19164,13 +19179,49 @@
       <c r="C30" t="s">
         <v>652</v>
       </c>
+      <c r="D30" t="s">
+        <v>662</v>
+      </c>
       <c r="E30">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B31" t="s">
         <v>651</v>
@@ -19179,16 +19230,16 @@
         <v>652</v>
       </c>
       <c r="D31" t="s">
-        <v>662</v>
-      </c>
-      <c r="E31" t="s">
-        <v>729</v>
+        <v>669</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -19200,27 +19251,27 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="P31" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B32" t="s">
         <v>651</v>
@@ -19229,48 +19280,48 @@
         <v>652</v>
       </c>
       <c r="D32" t="s">
-        <v>669</v>
-      </c>
-      <c r="E32" t="s">
-        <v>729</v>
+        <v>670</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="P32" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B33" t="s">
         <v>651</v>
@@ -19279,48 +19330,48 @@
         <v>652</v>
       </c>
       <c r="D33" t="s">
-        <v>670</v>
-      </c>
-      <c r="E33" t="s">
-        <v>729</v>
+        <v>667</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>10</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>2</v>
+      <c r="P33" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B34" t="s">
         <v>651</v>
@@ -19329,215 +19380,179 @@
         <v>652</v>
       </c>
       <c r="D34" t="s">
-        <v>667</v>
-      </c>
-      <c r="E34" t="s">
-        <v>729</v>
+        <v>668</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>3</v>
       </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="P34" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B35" t="s">
-        <v>651</v>
-      </c>
-      <c r="C35" t="s">
-        <v>652</v>
-      </c>
-      <c r="D35" t="s">
-        <v>668</v>
-      </c>
-      <c r="E35" t="s">
-        <v>729</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
+        <v>839</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B36" t="s">
-        <v>654</v>
-      </c>
-      <c r="E36">
-        <v>176</v>
+        <v>839</v>
+      </c>
+      <c r="C36" t="s">
+        <v>660</v>
+      </c>
+      <c r="P36">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B37" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C37" t="s">
         <v>660</v>
       </c>
+      <c r="D37" t="s">
+        <v>696</v>
+      </c>
       <c r="E37">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B38" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C38" t="s">
         <v>660</v>
       </c>
       <c r="D38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E38" t="s">
-        <v>729</v>
+        <v>700</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="P38" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B39" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C39" t="s">
-        <v>660</v>
-      </c>
-      <c r="D39" t="s">
-        <v>700</v>
-      </c>
-      <c r="E39" t="s">
-        <v>729</v>
-      </c>
-      <c r="F39">
-        <v>14</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>3</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>2</v>
+        <v>666</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -19545,62 +19560,98 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B40" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C40" t="s">
-        <v>666</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>657</v>
+      </c>
+      <c r="P40">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B41" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C41" t="s">
         <v>657</v>
       </c>
+      <c r="D41" t="s">
+        <v>676</v>
+      </c>
       <c r="E41">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B42" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C42" t="s">
         <v>657</v>
       </c>
       <c r="D42" t="s">
-        <v>676</v>
-      </c>
-      <c r="E42" t="s">
-        <v>729</v>
+        <v>674</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -19612,92 +19663,92 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="P42" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B43" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C43" t="s">
         <v>657</v>
       </c>
       <c r="D43" t="s">
-        <v>674</v>
-      </c>
-      <c r="E43" t="s">
-        <v>729</v>
+        <v>675</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="P43" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B44" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C44" t="s">
         <v>657</v>
       </c>
       <c r="D44" t="s">
-        <v>675</v>
-      </c>
-      <c r="E44" t="s">
-        <v>729</v>
+        <v>672</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -19706,36 +19757,36 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>3</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>2</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
+      <c r="P44" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B45" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C45" t="s">
         <v>657</v>
       </c>
       <c r="D45" t="s">
-        <v>672</v>
-      </c>
-      <c r="E45" t="s">
-        <v>729</v>
+        <v>673</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -19744,138 +19795,138 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="P45" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B46" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C46" t="s">
-        <v>657</v>
-      </c>
-      <c r="D46" t="s">
-        <v>673</v>
-      </c>
-      <c r="E46" t="s">
-        <v>729</v>
-      </c>
-      <c r="F46">
-        <v>16</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
+        <v>656</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B47" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C47" t="s">
         <v>656</v>
       </c>
-      <c r="E47">
-        <v>40</v>
+      <c r="D47" t="s">
+        <v>729</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B48" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C48" t="s">
         <v>656</v>
       </c>
       <c r="D48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E48" t="s">
-        <v>729</v>
+        <v>671</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>19</v>
+      </c>
+      <c r="P48" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B49" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C49" t="s">
         <v>656</v>
       </c>
       <c r="D49" t="s">
-        <v>671</v>
-      </c>
-      <c r="E49" t="s">
-        <v>729</v>
+        <v>681</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -19884,60 +19935,60 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>5</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B50" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C50" t="s">
         <v>656</v>
       </c>
       <c r="D50" t="s">
-        <v>681</v>
-      </c>
-      <c r="E50" t="s">
-        <v>729</v>
+        <v>682</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -19949,30 +20000,30 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P50" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B51" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C51" t="s">
         <v>656</v>
       </c>
       <c r="D51" t="s">
-        <v>682</v>
-      </c>
-      <c r="E51" t="s">
-        <v>729</v>
+        <v>680</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -19993,106 +20044,106 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="P51" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B52" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C52" t="s">
-        <v>656</v>
-      </c>
-      <c r="D52" t="s">
-        <v>680</v>
-      </c>
-      <c r="E52" t="s">
-        <v>729</v>
-      </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>2</v>
+        <v>658</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B53" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C53" t="s">
         <v>658</v>
       </c>
+      <c r="D53" t="s">
+        <v>713</v>
+      </c>
       <c r="E53">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B54" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C54" t="s">
         <v>658</v>
       </c>
       <c r="D54" t="s">
-        <v>713</v>
-      </c>
-      <c r="E54" t="s">
-        <v>729</v>
+        <v>678</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -20101,57 +20152,57 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P54" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B55" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C55" t="s">
         <v>658</v>
       </c>
       <c r="D55" t="s">
-        <v>678</v>
-      </c>
-      <c r="E55" t="s">
-        <v>729</v>
+        <v>679</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
       </c>
       <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
         <v>3</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -20163,789 +20214,789 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="P55" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B56" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C56" t="s">
         <v>658</v>
       </c>
       <c r="D56" t="s">
-        <v>679</v>
-      </c>
-      <c r="E56" t="s">
-        <v>729</v>
+        <v>677</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>7</v>
+      </c>
+      <c r="K56">
         <v>3</v>
       </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="P56" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B57" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C57" t="s">
-        <v>658</v>
-      </c>
-      <c r="D57" t="s">
-        <v>677</v>
-      </c>
-      <c r="E57" t="s">
-        <v>729</v>
-      </c>
-      <c r="F57">
-        <v>21</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>7</v>
-      </c>
-      <c r="M57">
-        <v>3</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>4</v>
+        <v>661</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B58" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C58" t="s">
         <v>661</v>
       </c>
+      <c r="D58" t="s">
+        <v>714</v>
+      </c>
       <c r="E58">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>5</v>
+      </c>
+      <c r="P58" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B59" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C59" t="s">
         <v>661</v>
       </c>
       <c r="D59" t="s">
-        <v>714</v>
-      </c>
-      <c r="E59" t="s">
-        <v>729</v>
+        <v>685</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>2</v>
-      </c>
-      <c r="P59">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="P59" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B60" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C60" t="s">
         <v>661</v>
       </c>
       <c r="D60" t="s">
-        <v>685</v>
-      </c>
-      <c r="E60" t="s">
-        <v>729</v>
+        <v>686</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
         <v>3</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>2</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
+      <c r="P60" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B61" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C61" t="s">
         <v>661</v>
       </c>
       <c r="D61" t="s">
-        <v>686</v>
-      </c>
-      <c r="E61" t="s">
-        <v>729</v>
+        <v>684</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
       <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
         <v>3</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>2</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="P61" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B62" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C62" t="s">
-        <v>661</v>
-      </c>
-      <c r="D62" t="s">
-        <v>684</v>
-      </c>
-      <c r="E62" t="s">
-        <v>729</v>
-      </c>
-      <c r="F62">
-        <v>23</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62">
-        <v>3</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>2</v>
-      </c>
-      <c r="M62">
-        <v>3</v>
-      </c>
-      <c r="N62">
-        <v>3</v>
-      </c>
-      <c r="O62">
-        <v>6</v>
+        <v>653</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B63" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C63" t="s">
-        <v>653</v>
-      </c>
-      <c r="E63">
+        <v>652</v>
+      </c>
+      <c r="P63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B64" t="s">
-        <v>654</v>
-      </c>
-      <c r="C64" t="s">
-        <v>652</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
+        <v>838</v>
+      </c>
+      <c r="P64">
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B65" t="s">
-        <v>659</v>
-      </c>
-      <c r="E65">
-        <v>205</v>
+        <v>838</v>
+      </c>
+      <c r="C65" t="s">
+        <v>660</v>
+      </c>
+      <c r="P65">
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B66" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C66" t="s">
         <v>660</v>
       </c>
+      <c r="D66" t="s">
+        <v>683</v>
+      </c>
       <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
         <v>14</v>
+      </c>
+      <c r="P66" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B67" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C67" t="s">
-        <v>660</v>
-      </c>
-      <c r="D67" t="s">
-        <v>683</v>
-      </c>
-      <c r="E67" t="s">
-        <v>729</v>
-      </c>
-      <c r="F67">
-        <v>14</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>3</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>2</v>
+        <v>666</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B68" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C68" t="s">
-        <v>666</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
+        <v>657</v>
+      </c>
+      <c r="P68">
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B69" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C69" t="s">
         <v>657</v>
       </c>
+      <c r="D69" t="s">
+        <v>689</v>
+      </c>
       <c r="E69">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>6</v>
+      </c>
+      <c r="P69" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B70" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C70" t="s">
         <v>657</v>
       </c>
       <c r="D70" t="s">
-        <v>689</v>
-      </c>
-      <c r="E70" t="s">
-        <v>729</v>
+        <v>690</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="P70" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B71" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C71" t="s">
         <v>657</v>
       </c>
       <c r="D71" t="s">
-        <v>690</v>
-      </c>
-      <c r="E71" t="s">
-        <v>729</v>
+        <v>688</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P71" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B72" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C72" t="s">
-        <v>657</v>
-      </c>
-      <c r="D72" t="s">
-        <v>688</v>
-      </c>
-      <c r="E72" t="s">
-        <v>729</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B73" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C73" t="s">
         <v>656</v>
       </c>
+      <c r="D73" t="s">
+        <v>703</v>
+      </c>
       <c r="E73">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>7</v>
+      </c>
+      <c r="P73" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B74" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C74" t="s">
         <v>656</v>
       </c>
       <c r="D74" t="s">
-        <v>703</v>
-      </c>
-      <c r="E74" t="s">
-        <v>729</v>
+        <v>706</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="P74" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B75" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C75" t="s">
         <v>656</v>
       </c>
       <c r="D75" t="s">
-        <v>706</v>
-      </c>
-      <c r="E75" t="s">
-        <v>729</v>
+        <v>687</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>2</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>2</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="P75" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B76" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C76" t="s">
         <v>656</v>
       </c>
       <c r="D76" t="s">
-        <v>687</v>
-      </c>
-      <c r="E76" t="s">
-        <v>729</v>
+        <v>838</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K76">
         <v>2</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="P76" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B77" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C77" t="s">
         <v>656</v>
       </c>
       <c r="D77" t="s">
-        <v>659</v>
-      </c>
-      <c r="E77" t="s">
-        <v>729</v>
+        <v>695</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -20954,112 +21005,112 @@
         <v>0</v>
       </c>
       <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
         <v>3</v>
       </c>
-      <c r="J77">
-        <v>4</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
       <c r="L77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>3</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="P77" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B78" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C78" t="s">
-        <v>656</v>
-      </c>
-      <c r="D78" t="s">
-        <v>695</v>
-      </c>
-      <c r="E78" t="s">
-        <v>729</v>
-      </c>
-      <c r="F78">
-        <v>11</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>5</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
+        <v>658</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B79" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C79" t="s">
         <v>658</v>
       </c>
+      <c r="D79" t="s">
+        <v>693</v>
+      </c>
       <c r="E79">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>6</v>
+      </c>
+      <c r="P79" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B80" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C80" t="s">
         <v>658</v>
       </c>
       <c r="D80" t="s">
-        <v>693</v>
-      </c>
-      <c r="E80" t="s">
-        <v>729</v>
+        <v>694</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -21068,7 +21119,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -21086,307 +21137,307 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P80" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B81" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C81" t="s">
-        <v>658</v>
-      </c>
-      <c r="D81" t="s">
-        <v>694</v>
-      </c>
-      <c r="E81" t="s">
-        <v>729</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B82" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C82" t="s">
         <v>661</v>
       </c>
-      <c r="E82">
-        <v>25</v>
+      <c r="D82" t="s">
+        <v>730</v>
+      </c>
+      <c r="O82">
+        <v>16</v>
+      </c>
+      <c r="P82" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B83" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C83" t="s">
         <v>661</v>
       </c>
       <c r="D83" t="s">
-        <v>731</v>
-      </c>
-      <c r="E83" t="s">
-        <v>729</v>
+        <v>692</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>9</v>
+      </c>
+      <c r="P83" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B84" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C84" t="s">
-        <v>661</v>
-      </c>
-      <c r="D84" t="s">
-        <v>692</v>
-      </c>
-      <c r="E84" t="s">
-        <v>729</v>
-      </c>
-      <c r="F84">
-        <v>9</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>2</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>1</v>
+        <v>653</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B85" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C85" t="s">
         <v>653</v>
       </c>
+      <c r="D85" t="s">
+        <v>698</v>
+      </c>
       <c r="E85">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>12</v>
+      </c>
+      <c r="P85" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B86" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C86" t="s">
         <v>653</v>
       </c>
       <c r="D86" t="s">
-        <v>698</v>
-      </c>
-      <c r="E86" t="s">
-        <v>729</v>
+        <v>691</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="P86" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B87" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C87" t="s">
-        <v>653</v>
-      </c>
-      <c r="D87" t="s">
-        <v>691</v>
-      </c>
-      <c r="E87" t="s">
-        <v>729</v>
-      </c>
-      <c r="F87">
-        <v>10</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>2</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>2</v>
+        <v>652</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B88" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C88" t="s">
         <v>652</v>
       </c>
+      <c r="D88" t="s">
+        <v>704</v>
+      </c>
       <c r="E88">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>8</v>
+      </c>
+      <c r="P88" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B89" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C89" t="s">
         <v>652</v>
       </c>
       <c r="D89" t="s">
-        <v>704</v>
-      </c>
-      <c r="E89" t="s">
-        <v>729</v>
+        <v>697</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -21395,48 +21446,48 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="P89" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B90" t="s">
-        <v>659</v>
+        <v>838</v>
       </c>
       <c r="C90" t="s">
         <v>652</v>
       </c>
       <c r="D90" t="s">
-        <v>697</v>
-      </c>
-      <c r="E90" t="s">
-        <v>729</v>
+        <v>702</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L90">
         <v>3</v>
@@ -21448,60 +21499,10 @@
         <v>1</v>
       </c>
       <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+        <v>26</v>
+      </c>
+      <c r="P90" t="s">
         <v>728</v>
-      </c>
-      <c r="B91" t="s">
-        <v>659</v>
-      </c>
-      <c r="C91" t="s">
-        <v>652</v>
-      </c>
-      <c r="D91" t="s">
-        <v>702</v>
-      </c>
-      <c r="E91" t="s">
-        <v>729</v>
-      </c>
-      <c r="F91">
-        <v>26</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <v>3</v>
-      </c>
-      <c r="I91">
-        <v>2</v>
-      </c>
-      <c r="J91">
-        <v>2</v>
-      </c>
-      <c r="K91">
-        <v>4</v>
-      </c>
-      <c r="L91">
-        <v>4</v>
-      </c>
-      <c r="M91">
-        <v>3</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>2</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
